--- a/data/NP20versusRestIncomeTrendsOHI.xlsx
+++ b/data/NP20versusRestIncomeTrendsOHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DA1B5E-8046-4CFF-AC13-1DD674C76618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF25C2F-9DFE-4689-8F3A-49CB4206BB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{DE7FC678-1EF2-480D-BFD2-187160926A5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{D7607436-B5FF-4282-933E-EDF01AE74CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -219,7 +219,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943EEDD4-7FE2-4C22-9119-241F36554CAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8974D417-BA75-4AAE-B3C2-4FEFAEA564C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,7 +277,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D8FDE4-59EF-4209-B361-4B656B14E159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828CD33D-A4F0-4F84-8ECF-FC132C70F281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -335,7 +335,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5D0524-2CE7-426B-8CAC-B8652ADDFF06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ECC816-5E02-4A8B-8453-301E571B82F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,7 +393,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE87A951-1D89-4EF1-A39B-5AC9655A72A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B57AE3F-EE1E-48B2-A479-2391CDA4D2D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,7 +451,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223DF51D-F714-454A-8535-87B618A6DEF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F24C196-DCB8-45C0-A551-86DC6B13E697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45961CBD-BF40-47FE-B141-6C32FF58C9A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E803CE89-2138-481E-8271-4B472A20D4D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +567,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25218A26-87B0-40D8-8B3E-19EE9C3F076F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591BD861-BDC1-4DF5-BDFD-1934FEC6D7EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +625,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E7C62D-2112-40E6-B8C5-9917061BA5F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0276E2D3-F9D2-4346-80B8-8DA5DD3E4D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +683,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEA32DA-026A-46EE-A75B-1CD495A97D37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611B5AA8-2945-4AD0-BBFB-B8C3D4681658}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +741,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27338474-B94D-41E4-AAFC-67C0E65BC757}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4529B51-21D1-47EF-8065-A8715AF6CE10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +799,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FDCFDE-2078-4A85-9BBA-7A4F0E886E6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3452C2B8-9877-4001-AC1E-F861B26419AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBD6533-CD53-4731-824B-D010CCC77070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0369F5-38FB-4D30-9CEC-FD4DBE6A33FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ECEA5D-D785-431A-9713-93E790879942}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC36472-DB40-4074-B459-E359E5C87BF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +973,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0FC1BF-174E-4F3F-AA2E-FE2D19543D54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7687CF-7449-466C-883B-A74D8B8FAE10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +1031,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAD0622-7B8C-4637-A5C4-55C7AD72B136}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5826255-E1D6-46EB-9C9D-D55CC9D91741}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1089,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD3CEAC-A992-47C4-AEF5-6DB32D8E9EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331CDEF5-FE0D-4B49-9E65-A05CAFF79235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDEB9F1-79CE-4140-A739-A8660A4FD6A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E0EC66-7699-45F9-82F4-9F965A58C383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1205,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A88303-9762-40FE-9585-C7005DF185A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E211FFDA-CF3C-4B03-9B17-99958272B468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1263,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CEA5D1-04A7-4FE1-A7F5-6E186C42D61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB981A57-F6EE-4AC9-A51F-5C3EBB38AE4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0155A58-BB93-4A7F-8DC0-6E5F6DCB9EBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD43B779-9A92-4CD9-96DB-6B1871EF31AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C425B73F-B1C7-4DFF-B1D9-D983E71D1173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0438E390-4855-470E-8BA9-7FE4F740BF7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB40DC94-DE3B-43C4-951B-264FD290B686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F7979E-2395-4375-B6AC-022680D88F97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A76D702-E773-4D71-ADDE-26D262EDCFD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1B714C-90F0-4F24-B1DE-4E232D59A899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0724862-8E34-4F43-A3AA-1EFB98C2EC55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A3D3EB-C7FB-46D1-AEDE-696772BB8B4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1611,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB6C410-6FA2-4670-A4D9-35003D159148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78EA708-AB4A-4981-B440-628A37A4D4AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1669,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2325B4A-7B05-4666-AE8B-87A7C921E08C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE46DA9E-984A-42ED-B395-6256A385EF9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9B053-DCC9-42F3-8917-5640E5F3A4D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0476474D-B20B-4C6E-8964-1BC62F7D65C9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2029,10 +2029,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>-4.8376009</v>
+        <v>13.132399100000001</v>
       </c>
       <c r="K2">
-        <v>44.016605704452097</v>
+        <v>39.524105704452097</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2043,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>-4.86753575</v>
+        <v>13.422464250000001</v>
       </c>
       <c r="K3">
-        <v>45.8533085950342</v>
+        <v>41.280808595034202</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2057,10 +2057,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>-4.4836839499999996</v>
+        <v>13.19631605</v>
       </c>
       <c r="K4">
-        <v>46.587441535445201</v>
+        <v>42.167441535445199</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2071,10 +2071,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>-4.45783985</v>
+        <v>13.212160150000001</v>
       </c>
       <c r="K5">
-        <v>45.964788729623301</v>
+        <v>41.547288729623297</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2085,10 +2085,10 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>-3.8107892374999999</v>
+        <v>12.569210762499999</v>
       </c>
       <c r="K6">
-        <v>43.496847994306499</v>
+        <v>39.4018479943065</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2099,10 +2099,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>-3.6306639000000001</v>
+        <v>12.839336100000001</v>
       </c>
       <c r="K7">
-        <v>43.5222961119863</v>
+        <v>39.4047961119863</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2113,10 +2113,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>-4.1613910750000001</v>
+        <v>13.788608925</v>
       </c>
       <c r="K8">
-        <v>47.378224481078803</v>
+        <v>42.890724481078799</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2127,10 +2127,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>-4.1947666124999996</v>
+        <v>14.405233387499999</v>
       </c>
       <c r="K9">
-        <v>49.903075214768798</v>
+        <v>45.253075214768799</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2141,10 +2141,10 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>-4.7158252249999997</v>
+        <v>16.924174775000001</v>
       </c>
       <c r="K10">
-        <v>59.152065895291102</v>
+        <v>53.742065895291098</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2155,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>-5.1149675987499998</v>
+        <v>19.810032401250002</v>
       </c>
       <c r="K11">
-        <v>69.803056968180599</v>
+        <v>63.571806968180603</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2169,10 +2169,10 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>-5.3448963799999998</v>
+        <v>19.865103619999999</v>
       </c>
       <c r="K12">
-        <v>69.629580259383602</v>
+        <v>63.3270802593836</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2183,10 +2183,10 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>-5.3728188000000001</v>
+        <v>20.3371812</v>
       </c>
       <c r="K13">
-        <v>71.259478672602796</v>
+        <v>64.831978672602801</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2197,10 +2197,10 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>-5.3514793799999998</v>
+        <v>20.50352062</v>
       </c>
       <c r="K14">
-        <v>71.825993132671201</v>
+        <v>65.362243132671196</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2211,10 +2211,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>-5.1873487312500002</v>
+        <v>20.46765126875</v>
       </c>
       <c r="K15">
-        <v>71.661672799250894</v>
+        <v>65.247922799250802</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2225,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>-5.21281762</v>
+        <v>20.957182379999999</v>
       </c>
       <c r="K16">
-        <v>73.350957829657503</v>
+        <v>66.808457829657499</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2241,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC1AFD-52F9-4B52-A0AF-1B011A78BC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20443F3C-540A-493C-B689-F90C5AA9A83B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2267,10 +2267,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>-1.7628402125</v>
+        <v>6.9571597875000002</v>
       </c>
       <c r="K2">
-        <v>24.5078319709332</v>
+        <v>22.3278319709332</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2281,10 +2281,10 @@
         <v>13</v>
       </c>
       <c r="J3">
-        <v>-1.7926995750000001</v>
+        <v>7.2473004249999997</v>
       </c>
       <c r="K3">
-        <v>25.520933797859598</v>
+        <v>23.2609337978596</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2295,10 +2295,10 @@
         <v>13</v>
       </c>
       <c r="J4">
-        <v>-2.1597237250000001</v>
+        <v>8.2702762750000005</v>
       </c>
       <c r="K4">
-        <v>29.154202164126701</v>
+        <v>26.5467021641267</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2309,10 +2309,10 @@
         <v>13</v>
       </c>
       <c r="J5">
-        <v>-1.6289336125</v>
+        <v>7.2910663874999999</v>
       </c>
       <c r="K5">
-        <v>25.629400526412699</v>
+        <v>23.399400526412698</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2323,10 +2323,10 @@
         <v>13</v>
       </c>
       <c r="J6">
-        <v>-2.2124931999999999</v>
+        <v>8.4175068</v>
       </c>
       <c r="K6">
-        <v>29.680020560273999</v>
+        <v>27.022520560274</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2337,10 +2337,10 @@
         <v>13</v>
       </c>
       <c r="J7">
-        <v>-2.0608362499999999</v>
+        <v>8.9091637499999994</v>
       </c>
       <c r="K7">
-        <v>31.3349364597603</v>
+        <v>28.5924364597603</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2351,10 +2351,10 @@
         <v>13</v>
       </c>
       <c r="J8">
-        <v>-2.5214758000000002</v>
+        <v>9.9285242</v>
       </c>
       <c r="K8">
-        <v>34.977521004794497</v>
+        <v>31.8650210047945</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2365,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="J9">
-        <v>-2.9091421</v>
+        <v>10.940857899999999</v>
       </c>
       <c r="K9">
-        <v>38.579255388013699</v>
+        <v>35.116755388013701</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2379,10 +2379,10 @@
         <v>13</v>
       </c>
       <c r="J10">
-        <v>-3.3518018624999999</v>
+        <v>11.5381981375</v>
       </c>
       <c r="K10">
-        <v>42.896881972474297</v>
+        <v>39.174381972474301</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2393,10 +2393,10 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>-3.5820855250000001</v>
+        <v>12.667914475</v>
       </c>
       <c r="K11">
-        <v>45.277521381249997</v>
+        <v>41.215021381249997</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2407,10 +2407,10 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <v>-2.8732890000000002</v>
+        <v>10.486711</v>
       </c>
       <c r="K12">
-        <v>39.779103071917802</v>
+        <v>36.439103071917799</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2421,10 +2421,10 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>-2.2558837500000002</v>
+        <v>7.9541162500000002</v>
       </c>
       <c r="K13">
-        <v>32.975231211472597</v>
+        <v>30.422731211472598</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2435,10 +2435,10 @@
         <v>13</v>
       </c>
       <c r="J14">
-        <v>-1.3454866249999999</v>
+        <v>6.5345133750000004</v>
       </c>
       <c r="K14">
-        <v>28.472977135702099</v>
+        <v>26.5029771357021</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2449,10 +2449,10 @@
         <v>13</v>
       </c>
       <c r="J15">
-        <v>-1.1069620389999999</v>
+        <v>6.3530379610000001</v>
       </c>
       <c r="K15">
-        <v>27.149721331667799</v>
+        <v>25.2847213316678</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2463,10 +2463,10 @@
         <v>13</v>
       </c>
       <c r="J16">
-        <v>-0.95798950000000005</v>
+        <v>6.3620105000000002</v>
       </c>
       <c r="K16">
-        <v>27.455291895547902</v>
+        <v>25.6252918955479</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2479,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A67D9A8-7C82-4F06-9A9E-43F84EDA4875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D98E6E-F679-4807-BBBD-2A3381A03B87}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2505,10 +2505,10 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>-4.0123471999999998</v>
+        <v>15.2076528</v>
       </c>
       <c r="K2">
-        <v>41.073984060274</v>
+        <v>36.268984060274001</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2519,10 +2519,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>-3.789897125</v>
+        <v>15.250102875</v>
       </c>
       <c r="K3">
-        <v>41.130292089469201</v>
+        <v>36.370292089469203</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2533,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="J4">
-        <v>-4.3726104000000001</v>
+        <v>17.3073896</v>
       </c>
       <c r="K4">
-        <v>46.696727942465699</v>
+        <v>41.276727942465698</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2547,10 +2547,10 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>-4.4685533250000002</v>
+        <v>17.701446675</v>
       </c>
       <c r="K5">
-        <v>47.759042440839004</v>
+        <v>42.216542440839</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2561,10 +2561,10 @@
         <v>14</v>
       </c>
       <c r="J6">
-        <v>-3.9854058750000001</v>
+        <v>15.894594124999999</v>
       </c>
       <c r="K6">
-        <v>42.879598044092504</v>
+        <v>37.909598044092498</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2575,10 +2575,10 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>-4.1541579000000004</v>
+        <v>17.315842100000001</v>
       </c>
       <c r="K7">
-        <v>46.6643887900685</v>
+        <v>41.2968887900685</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2589,10 +2589,10 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>-5.3567265624999996</v>
+        <v>21.218273437499999</v>
       </c>
       <c r="K8">
-        <v>57.2477158872003</v>
+        <v>50.603965887200303</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2603,10 +2603,10 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>-4.9948668562499998</v>
+        <v>20.480133143749999</v>
       </c>
       <c r="K9">
-        <v>55.2123468510488</v>
+        <v>48.843596851048801</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2617,10 +2617,10 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>-4.5766328037499999</v>
+        <v>22.23836719625</v>
       </c>
       <c r="K10">
-        <v>61.826678748882699</v>
+        <v>55.1229287488827</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2631,10 +2631,10 @@
         <v>14</v>
       </c>
       <c r="J11">
-        <v>-5.4760658199999996</v>
+        <v>26.448934179999998</v>
       </c>
       <c r="K11">
-        <v>77.926386318013698</v>
+        <v>69.945136318013695</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2645,10 +2645,10 @@
         <v>14</v>
       </c>
       <c r="J12">
-        <v>-4.5862793000000002</v>
+        <v>21.773720699999998</v>
       </c>
       <c r="K12">
-        <v>58.195967085273999</v>
+        <v>51.605967085274003</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2659,10 +2659,10 @@
         <v>14</v>
       </c>
       <c r="J13">
-        <v>-4.0674320074999999</v>
+        <v>21.1175679925</v>
       </c>
       <c r="K13">
-        <v>58.038515536121601</v>
+        <v>51.7422655361216</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2673,10 +2673,10 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>-4.0617059612500004</v>
+        <v>21.64329403875</v>
       </c>
       <c r="K14">
-        <v>59.219741558805701</v>
+        <v>52.793491558805698</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2687,10 +2687,10 @@
         <v>14</v>
       </c>
       <c r="J15">
-        <v>-3.7750077750000002</v>
+        <v>23.454992225000002</v>
       </c>
       <c r="K15">
-        <v>60.409464272517098</v>
+        <v>53.601964272517101</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2701,10 +2701,10 @@
         <v>14</v>
       </c>
       <c r="J16">
-        <v>-4.0824602749999999</v>
+        <v>24.362539725000001</v>
       </c>
       <c r="K16">
-        <v>65.799409589297994</v>
+        <v>58.688159589298003</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0503A082-5F8F-481E-AAF8-6CAA21D6891C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D08177-0779-47BD-9ED7-6D3252E565A0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2743,10 +2743,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>-1.8731722500000001</v>
+        <v>8.0968277499999992</v>
       </c>
       <c r="K2">
-        <v>26.8099410077055</v>
+        <v>24.317441007705501</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2757,10 +2757,10 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>-1.4725018750000001</v>
+        <v>7.5674981250000002</v>
       </c>
       <c r="K3">
-        <v>24.989051496147301</v>
+        <v>22.729051496147299</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2771,10 +2771,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>-2.2137068000000002</v>
+        <v>9.4662932000000009</v>
       </c>
       <c r="K4">
-        <v>31.3504527273973</v>
+        <v>28.430452727397299</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2785,10 +2785,10 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>-1.845656</v>
+        <v>8.324344</v>
       </c>
       <c r="K5">
-        <v>27.545894821917798</v>
+        <v>25.003394821917801</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2799,10 +2799,10 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>-2.3540169999999998</v>
+        <v>10.025983</v>
       </c>
       <c r="K6">
-        <v>33.2056754828767</v>
+        <v>30.110675482876701</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2813,10 +2813,10 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>-2.7950208750000001</v>
+        <v>11.424979125</v>
       </c>
       <c r="K7">
-        <v>37.870333300941802</v>
+        <v>34.315333300941802</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2827,10 +2827,10 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>-3.6313425124999998</v>
+        <v>14.068657487499999</v>
       </c>
       <c r="K8">
-        <v>46.6753835733305</v>
+        <v>42.250383573330502</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2841,10 +2841,10 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <v>-4.4728383750000003</v>
+        <v>16.377161624999999</v>
       </c>
       <c r="K9">
-        <v>54.398949319777401</v>
+        <v>49.186449319777402</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2855,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="J10">
-        <v>-4.1759765624999998</v>
+        <v>18.2140234375</v>
       </c>
       <c r="K10">
-        <v>60.111364003638698</v>
+        <v>54.513864003638702</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2869,10 +2869,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>-4.3076343250000004</v>
+        <v>18.942365675000001</v>
       </c>
       <c r="K11">
-        <v>58.8518537867294</v>
+        <v>53.0393537867294</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2883,10 +2883,10 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>-4.5190208749999998</v>
+        <v>16.590979125</v>
       </c>
       <c r="K12">
-        <v>55.8009333009418</v>
+        <v>50.523433300941797</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2897,10 +2897,10 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>-4.3595307500000002</v>
+        <v>15.85046925</v>
       </c>
       <c r="K13">
-        <v>54.283416934075298</v>
+        <v>49.230916934075303</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2911,10 +2911,10 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <v>-3.5260671000000001</v>
+        <v>16.1039329</v>
       </c>
       <c r="K14">
-        <v>54.481571569520597</v>
+        <v>49.574071569520498</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2925,10 +2925,10 @@
         <v>15</v>
       </c>
       <c r="J15">
-        <v>-3.7925171999999998</v>
+        <v>15.6874828</v>
       </c>
       <c r="K15">
-        <v>54.433156697260301</v>
+        <v>49.563156697260297</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2939,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>-3.8047412500000002</v>
+        <v>18.515258750000001</v>
       </c>
       <c r="K16">
-        <v>58.817733257705498</v>
+        <v>53.2377332577055</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2955,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664B8F15-9B9F-4A9A-9B35-525A66974EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D4EE9-DF8A-4A73-AA68-C8D2B9D0BDC0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2981,10 +2981,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>-1.1687568800000001</v>
+        <v>6.4412431200000002</v>
       </c>
       <c r="K2">
-        <v>24.627753603561601</v>
+        <v>22.725253603561601</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2995,10 +2995,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>-1.1192714450000001</v>
+        <v>6.3707285550000003</v>
       </c>
       <c r="K3">
-        <v>24.629420600976001</v>
+        <v>22.756920600975999</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3009,10 +3009,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>-1.207434162</v>
+        <v>7.4325658380000004</v>
       </c>
       <c r="K4">
-        <v>27.725355800774</v>
+        <v>25.565355800774</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3023,10 +3023,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>-1.2166626169999999</v>
+        <v>6.873337383</v>
       </c>
       <c r="K5">
-        <v>26.496577983017101</v>
+        <v>24.4740779830171</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3037,10 +3037,10 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>-1.5320834375000001</v>
+        <v>7.8479165625</v>
       </c>
       <c r="K6">
-        <v>29.432822229237999</v>
+        <v>27.087822229238</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3051,10 +3051,10 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>-1.4523737999999999</v>
+        <v>7.5176261999999996</v>
       </c>
       <c r="K7">
-        <v>30.3175304363014</v>
+        <v>28.0750304363014</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3065,10 +3065,10 @@
         <v>16</v>
       </c>
       <c r="J8">
-        <v>-1.3132355499999999</v>
+        <v>7.6367644500000003</v>
       </c>
       <c r="K8">
-        <v>32.054134914897297</v>
+        <v>29.8166349148973</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3079,10 +3079,10 @@
         <v>16</v>
       </c>
       <c r="J9">
-        <v>-1.7433383</v>
+        <v>7.6066617000000001</v>
       </c>
       <c r="K9">
-        <v>34.222496218835602</v>
+        <v>31.8849962188356</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3093,10 +3093,10 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <v>-1.43296643</v>
+        <v>6.6570335700000003</v>
       </c>
       <c r="K10">
-        <v>34.553914210239697</v>
+        <v>32.531414210239703</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3107,10 +3107,10 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>-1.4971163624999999</v>
+        <v>7.2528836375000001</v>
       </c>
       <c r="K11">
-        <v>37.637981830351002</v>
+        <v>35.450481830351002</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3121,10 +3121,10 @@
         <v>16</v>
       </c>
       <c r="J12">
-        <v>-1.3542203125000001</v>
+        <v>7.2557796874999996</v>
       </c>
       <c r="K12">
-        <v>39.035994804152402</v>
+        <v>36.883494804152399</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3135,10 +3135,10 @@
         <v>16</v>
       </c>
       <c r="J13">
-        <v>-1.678829975</v>
+        <v>7.5311700249999998</v>
       </c>
       <c r="K13">
-        <v>40.384791055393798</v>
+        <v>38.082291055393803</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3149,10 +3149,10 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>-1.9367052</v>
+        <v>7.6932948000000003</v>
       </c>
       <c r="K14">
-        <v>41.040177669862999</v>
+        <v>38.632677669863</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3163,10 +3163,10 @@
         <v>16</v>
       </c>
       <c r="J15">
-        <v>-1.8988083625000001</v>
+        <v>7.8311916374999999</v>
       </c>
       <c r="K15">
-        <v>41.759797981036002</v>
+        <v>39.327297981035997</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3177,10 +3177,10 @@
         <v>16</v>
       </c>
       <c r="J16">
-        <v>-1.8917987375</v>
+        <v>8.1782012625</v>
       </c>
       <c r="K16">
-        <v>43.585168862457202</v>
+        <v>41.067668862457197</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3193,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16571EA4-EB7D-4B37-AB72-06F68620F24E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82EBCAB-7049-4414-993D-3155F9C8E782}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3219,10 +3219,10 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>-3.6843151999999999</v>
+        <v>9.2856848000000003</v>
       </c>
       <c r="K2">
-        <v>35.734480169862998</v>
+        <v>32.491980169862998</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3233,10 +3233,10 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>-3.666813275</v>
+        <v>9.6231867250000001</v>
       </c>
       <c r="K3">
-        <v>36.995044414640397</v>
+        <v>33.672544414640399</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3247,10 +3247,10 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>-4.6696736000000003</v>
+        <v>11.7603264</v>
       </c>
       <c r="K4">
-        <v>45.259486893150701</v>
+        <v>41.151986893150699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3261,10 +3261,10 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <v>-3.9972992000000001</v>
+        <v>10.672700799999999</v>
       </c>
       <c r="K5">
-        <v>41.008680964383601</v>
+        <v>37.341180964383597</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3275,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="J6">
-        <v>-4.4917999374999997</v>
+        <v>11.888200062499999</v>
       </c>
       <c r="K6">
-        <v>45.688607518621602</v>
+        <v>41.593607518621603</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3289,10 +3289,10 @@
         <v>17</v>
       </c>
       <c r="J7">
-        <v>-4.5925324500000002</v>
+        <v>12.37746755</v>
       </c>
       <c r="K7">
-        <v>47.547941331678103</v>
+        <v>43.305441331678097</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3303,10 +3303,10 @@
         <v>17</v>
       </c>
       <c r="J8">
-        <v>-5.1737776000000002</v>
+        <v>13.5262224</v>
       </c>
       <c r="K8">
-        <v>51.999567687671203</v>
+        <v>47.324567687671198</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3317,10 +3317,10 @@
         <v>17</v>
       </c>
       <c r="J9">
-        <v>-5.2034220500000004</v>
+        <v>13.896577949999999</v>
       </c>
       <c r="K9">
-        <v>53.395403457705498</v>
+        <v>48.6204034577055</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3331,10 +3331,10 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <v>-5.3203281249999996</v>
+        <v>14.319671874999999</v>
       </c>
       <c r="K10">
-        <v>54.282219017551398</v>
+        <v>49.372219017551402</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3345,10 +3345,10 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>-5.0384348499999998</v>
+        <v>14.71156515</v>
       </c>
       <c r="K11">
-        <v>54.782074465924701</v>
+        <v>49.844574465924701</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3359,10 +3359,10 @@
         <v>17</v>
       </c>
       <c r="J12">
-        <v>-5.8237848999999997</v>
+        <v>13.5362151</v>
       </c>
       <c r="K12">
-        <v>54.590014718150698</v>
+        <v>49.750014718150702</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3373,10 +3373,10 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <v>-5.1226916124999997</v>
+        <v>13.3373083875</v>
       </c>
       <c r="K13">
-        <v>53.642303040111301</v>
+        <v>49.027303040111299</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3387,10 +3387,10 @@
         <v>17</v>
       </c>
       <c r="J14">
-        <v>-4.7737201625000001</v>
+        <v>12.606279837500001</v>
       </c>
       <c r="K14">
-        <v>51.1920875748716</v>
+        <v>46.847087574871601</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3401,10 +3401,10 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <v>-4.6550279249999997</v>
+        <v>12.324972075</v>
       </c>
       <c r="K15">
-        <v>50.592907666181503</v>
+        <v>46.347907666181499</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3415,10 +3415,10 @@
         <v>17</v>
       </c>
       <c r="J16">
-        <v>-4.9853895499999998</v>
+        <v>11.83461045</v>
       </c>
       <c r="K16">
-        <v>51.694717250513698</v>
+        <v>47.489717250513699</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3431,7 +3431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B6B355-4DCA-4327-B39D-15D0D4BF7D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871E26D-E304-42BA-9582-7DB2360B6CCF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3457,10 +3457,10 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>-3.1464547500000002</v>
+        <v>8.8235452500000005</v>
       </c>
       <c r="K2">
-        <v>30.731487660102701</v>
+        <v>27.738987660102701</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3471,10 +3471,10 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <v>-3.1760894</v>
+        <v>9.6139106000000005</v>
       </c>
       <c r="K3">
-        <v>33.422901802054803</v>
+        <v>30.225401802054801</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3485,10 +3485,10 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>-4.4742341999999997</v>
+        <v>12.2057658</v>
       </c>
       <c r="K4">
-        <v>42.542476358219197</v>
+        <v>38.372476358219203</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3499,10 +3499,10 @@
         <v>18</v>
       </c>
       <c r="J5">
-        <v>-3.5193183750000001</v>
+        <v>10.650681625000001</v>
       </c>
       <c r="K5">
-        <v>37.027893977311599</v>
+        <v>33.485393977311602</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3513,10 +3513,10 @@
         <v>18</v>
       </c>
       <c r="J6">
-        <v>-4.6189196875</v>
+        <v>12.761080312500001</v>
       </c>
       <c r="K6">
-        <v>44.460634031463997</v>
+        <v>40.115634031463998</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3527,10 +3527,10 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>-4.6965449750000001</v>
+        <v>13.523455025000001</v>
       </c>
       <c r="K7">
-        <v>47.069040353338998</v>
+        <v>42.514040353338999</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3541,10 +3541,10 @@
         <v>18</v>
       </c>
       <c r="J8">
-        <v>-4.8499509999999999</v>
+        <v>13.600049</v>
       </c>
       <c r="K8">
-        <v>47.366172681506903</v>
+        <v>42.753672681506799</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3555,10 +3555,10 @@
         <v>18</v>
       </c>
       <c r="J9">
-        <v>-4.9476222749999996</v>
+        <v>14.152377724999999</v>
       </c>
       <c r="K9">
-        <v>49.263987760530803</v>
+        <v>44.488987760530797</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3569,10 +3569,10 @@
         <v>18</v>
       </c>
       <c r="J10">
-        <v>-5.0679804749999997</v>
+        <v>14.572019525</v>
       </c>
       <c r="K10">
-        <v>50.721912926969203</v>
+        <v>45.8119129269692</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3583,10 +3583,10 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <v>-4.82267885</v>
+        <v>14.677321149999999</v>
       </c>
       <c r="K11">
-        <v>51.014340945376702</v>
+        <v>46.139340945376702</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3597,10 +3597,10 @@
         <v>18</v>
       </c>
       <c r="J12">
-        <v>-4.9381689</v>
+        <v>14.9218311</v>
       </c>
       <c r="K12">
-        <v>51.876021677054801</v>
+        <v>46.911021677054798</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3611,10 +3611,10 @@
         <v>18</v>
       </c>
       <c r="J13">
-        <v>-4.567985975</v>
+        <v>14.892014025</v>
       </c>
       <c r="K13">
-        <v>51.681311562243103</v>
+        <v>46.816311562243101</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3625,10 +3625,10 @@
         <v>18</v>
       </c>
       <c r="J14">
-        <v>-4.6612302874999996</v>
+        <v>15.2187697125</v>
       </c>
       <c r="K14">
-        <v>52.812485654066798</v>
+        <v>47.842485654066799</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3639,10 +3639,10 @@
         <v>18</v>
       </c>
       <c r="J15">
-        <v>-4.8788711500000002</v>
+        <v>15.60112885</v>
       </c>
       <c r="K15">
-        <v>54.166553403938401</v>
+        <v>49.046553403938297</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3653,10 +3653,10 @@
         <v>18</v>
       </c>
       <c r="J16">
-        <v>-4.6278801249999999</v>
+        <v>15.442119874999999</v>
       </c>
       <c r="K16">
-        <v>53.563559072345903</v>
+        <v>48.546059072345898</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3669,7 +3669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79332A8-4F92-4AF5-A78E-9DE79664C067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00953147-660A-4559-9F3F-9533439C2FDE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3695,10 +3695,10 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>-0.49487434000000002</v>
+        <v>3.3551256600000001</v>
       </c>
       <c r="K2">
-        <v>11.612687078150699</v>
+        <v>10.650187078150701</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3709,10 +3709,10 @@
         <v>19</v>
       </c>
       <c r="J3">
-        <v>-0.63094217649999995</v>
+        <v>4.0490578235000001</v>
       </c>
       <c r="K3">
-        <v>14.022934174262</v>
+        <v>12.852934174262</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3723,10 +3723,10 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>-1.595848529</v>
+        <v>6.4241514710000001</v>
       </c>
       <c r="K4">
-        <v>22.3972265158116</v>
+        <v>20.392226515811601</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3737,10 +3737,10 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>-0.93944393749999999</v>
+        <v>4.9805560624999998</v>
       </c>
       <c r="K5">
-        <v>17.289770573416099</v>
+        <v>15.809770573416101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3751,10 +3751,10 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <v>-2.1377083749999999</v>
+        <v>7.742291625</v>
       </c>
       <c r="K6">
-        <v>27.046627093750001</v>
+        <v>24.576627093750002</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3765,10 +3765,10 @@
         <v>19</v>
       </c>
       <c r="J7">
-        <v>-2.9806672125000002</v>
+        <v>9.7393327875000004</v>
       </c>
       <c r="K7">
-        <v>34.095895570248302</v>
+        <v>30.915895570248299</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3779,10 +3779,10 @@
         <v>19</v>
       </c>
       <c r="J8">
-        <v>-2.9514909249999999</v>
+        <v>9.7485090749999994</v>
       </c>
       <c r="K8">
-        <v>34.119489169606197</v>
+        <v>30.9444891696062</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3793,10 +3793,10 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <v>-3.881558375</v>
+        <v>11.968441625000001</v>
       </c>
       <c r="K9">
-        <v>41.953870415667801</v>
+        <v>37.991370415667802</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3807,10 +3807,10 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <v>-3.8158571999999999</v>
+        <v>12.324142800000001</v>
       </c>
       <c r="K10">
-        <v>43.155210875342497</v>
+        <v>39.120210875342501</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3821,10 +3821,10 @@
         <v>19</v>
       </c>
       <c r="J11">
-        <v>-4.1578411124999999</v>
+        <v>13.0921588875</v>
       </c>
       <c r="K11">
-        <v>46.412652058946897</v>
+        <v>42.100152058946897</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3835,10 +3835,10 @@
         <v>19</v>
       </c>
       <c r="J12">
-        <v>-4.2492662125000003</v>
+        <v>13.360733787499999</v>
       </c>
       <c r="K12">
-        <v>47.063248059974299</v>
+        <v>42.660748059974303</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3849,10 +3849,10 @@
         <v>19</v>
       </c>
       <c r="J13">
-        <v>-4.390251975</v>
+        <v>13.819748025000001</v>
       </c>
       <c r="K13">
-        <v>48.630384911558203</v>
+        <v>44.077884911558201</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3863,10 +3863,10 @@
         <v>19</v>
       </c>
       <c r="J14">
-        <v>-4.4958250499999997</v>
+        <v>14.13417495</v>
       </c>
       <c r="K14">
-        <v>49.685161741952101</v>
+        <v>45.027661741952102</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3877,10 +3877,10 @@
         <v>19</v>
       </c>
       <c r="J15">
-        <v>-4.3952313125</v>
+        <v>14.3347686875</v>
       </c>
       <c r="K15">
-        <v>50.349273581549703</v>
+        <v>45.666773581549698</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3891,10 +3891,10 @@
         <v>19</v>
       </c>
       <c r="J16">
-        <v>-4.5853954999999997</v>
+        <v>14.7346045</v>
       </c>
       <c r="K16">
-        <v>51.773362573630102</v>
+        <v>46.943362573630097</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0A05DA-3D9D-443B-B600-B1EC523CD156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E5D94-BC8C-4A1C-9193-5EA3EA5DED8B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3933,10 +3933,10 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <v>-4.9391060500000004</v>
+        <v>17.030893949999999</v>
       </c>
       <c r="K2">
-        <v>52.762365553595899</v>
+        <v>47.269865553595899</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3947,10 +3947,10 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>-4.8963222499999999</v>
+        <v>17.393677749999998</v>
       </c>
       <c r="K3">
-        <v>53.849546315924698</v>
+        <v>48.2770463159247</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3961,10 +3961,10 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>-5.9606805500000002</v>
+        <v>21.319319449999998</v>
       </c>
       <c r="K4">
-        <v>65.991238630650699</v>
+        <v>59.171238630650699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3975,10 +3975,10 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>-5.1750031725000003</v>
+        <v>19.0449968275</v>
       </c>
       <c r="K5">
-        <v>58.913928875316799</v>
+        <v>52.858928875316799</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3989,10 +3989,10 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>-6.1059732737500001</v>
+        <v>21.849026726249999</v>
       </c>
       <c r="K6">
-        <v>67.630178249944393</v>
+        <v>60.641428249944298</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4003,10 +4003,10 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>-6.6941950500000003</v>
+        <v>24.025804950000001</v>
       </c>
       <c r="K7">
-        <v>74.363014515924704</v>
+        <v>66.683014515924697</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4017,10 +4017,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>-7.2356216499999997</v>
+        <v>25.71437835</v>
       </c>
       <c r="K8">
-        <v>79.607124590582202</v>
+        <v>71.369624590582205</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4031,10 +4031,10 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>-8.3086999000000006</v>
+        <v>28.041300100000001</v>
       </c>
       <c r="K9">
-        <v>86.9246955229452</v>
+        <v>77.837195522945194</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4045,10 +4045,10 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>-8.3956940000000007</v>
+        <v>29.744306000000002</v>
       </c>
       <c r="K10">
-        <v>93.127923499999994</v>
+        <v>83.592923499999998</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4059,10 +4059,10 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>-7.7290963000000001</v>
+        <v>28.270903700000002</v>
       </c>
       <c r="K11">
-        <v>92.809178184589101</v>
+        <v>83.809178184589101</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4073,10 +4073,10 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>-6.8756899999999996</v>
+        <v>28.984310000000001</v>
       </c>
       <c r="K12">
-        <v>90.560675924657502</v>
+        <v>81.595675924657499</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4087,10 +4087,10 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>-6.4643791999999998</v>
+        <v>27.245620800000001</v>
       </c>
       <c r="K13">
-        <v>89.421903019178103</v>
+        <v>80.994403019178094</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4101,10 +4101,10 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>-5.8578212499999998</v>
+        <v>26.147178749999998</v>
       </c>
       <c r="K14">
-        <v>90.4740443535959</v>
+        <v>82.472794353595901</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4115,10 +4115,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>-6.4900295999999997</v>
+        <v>26.989970400000001</v>
       </c>
       <c r="K15">
-        <v>90.048781372602704</v>
+        <v>81.678781372602799</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4129,10 +4129,10 @@
         <v>20</v>
       </c>
       <c r="J16">
-        <v>-7.4671396262499998</v>
+        <v>24.927860373750001</v>
       </c>
       <c r="K16">
-        <v>88.708524632589899</v>
+        <v>80.609774632589904</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4145,7 +4145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31E66D0-D4B5-4795-B600-102D1EB4F16C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270A1798-8ABE-4DCE-8C0F-4B9862E29D91}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4171,10 +4171,10 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>-1.1377911199999999</v>
+        <v>6.4722088800000002</v>
       </c>
       <c r="K2">
-        <v>19.1319559991781</v>
+        <v>17.2294559991781</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4185,10 +4185,10 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>-0.94173147999999995</v>
+        <v>6.40826852</v>
       </c>
       <c r="K3">
-        <v>18.896731500137001</v>
+        <v>17.059231500136999</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4199,10 +4199,10 @@
         <v>21</v>
       </c>
       <c r="J4">
-        <v>-1.4071238500000001</v>
+        <v>8.2728761500000001</v>
       </c>
       <c r="K4">
-        <v>24.444443976198599</v>
+        <v>22.024443976198601</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4213,10 +4213,10 @@
         <v>21</v>
       </c>
       <c r="J5">
-        <v>-0.95665873850000005</v>
+        <v>6.8233412615000004</v>
       </c>
       <c r="K5">
-        <v>20.1091920818853</v>
+        <v>18.1641920818853</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>-1.7080458624999999</v>
+        <v>9.1719541375000002</v>
       </c>
       <c r="K6">
-        <v>27.136344342337299</v>
+        <v>24.4163443423373</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4241,10 +4241,10 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>-2.0178471</v>
+        <v>10.4521529</v>
       </c>
       <c r="K7">
-        <v>30.941738487328799</v>
+        <v>27.824238487328799</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4255,10 +4255,10 @@
         <v>21</v>
       </c>
       <c r="J8">
-        <v>-2.5792480000000002</v>
+        <v>11.870752</v>
       </c>
       <c r="K8">
-        <v>35.215706520547897</v>
+        <v>31.6032065205479</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4269,10 +4269,10 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>-2.5329632625</v>
+        <v>12.5670367375</v>
       </c>
       <c r="K9">
-        <v>37.230064103296201</v>
+        <v>33.455064103296202</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4283,10 +4283,10 @@
         <v>21</v>
       </c>
       <c r="J10">
-        <v>-2.6288193</v>
+        <v>13.511180700000001</v>
       </c>
       <c r="K10">
-        <v>40.003807564726003</v>
+        <v>35.968807564725999</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4297,10 +4297,10 @@
         <v>21</v>
       </c>
       <c r="J11">
-        <v>-2.9577619374999999</v>
+        <v>15.292238062499999</v>
       </c>
       <c r="K11">
-        <v>45.863098018621599</v>
+        <v>41.300598018621599</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4311,10 +4311,10 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>-3.2551879499999998</v>
+        <v>15.10481205</v>
       </c>
       <c r="K12">
-        <v>45.634495617637</v>
+        <v>41.044495617636997</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4325,10 +4325,10 @@
         <v>21</v>
       </c>
       <c r="J13">
-        <v>-2.9203405624999998</v>
+        <v>15.539659437499999</v>
       </c>
       <c r="K13">
-        <v>46.580482400899001</v>
+        <v>41.965482400898999</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4339,10 +4339,10 @@
         <v>21</v>
       </c>
       <c r="J14">
-        <v>-3.2532400749999999</v>
+        <v>15.876759925</v>
       </c>
       <c r="K14">
-        <v>48.2375154982021</v>
+        <v>43.455015498202101</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4353,10 +4353,10 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>-3.2637697499999998</v>
+        <v>17.216230249999999</v>
       </c>
       <c r="K15">
-        <v>50.704997232020503</v>
+        <v>45.584997232020498</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4367,10 +4367,10 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <v>-3.2128663999999998</v>
+        <v>18.107133600000001</v>
       </c>
       <c r="K16">
-        <v>53.867298791780797</v>
+        <v>48.537298791780799</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4383,7 +4383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85779382-FEBA-4783-AF3D-3DFED305806B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84705913-D6CD-4D63-A14D-4D313009C9B6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4409,10 +4409,10 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>-3.8096079999999999</v>
+        <v>13.410392</v>
       </c>
       <c r="K2">
-        <v>40.853762273972599</v>
+        <v>36.548762273972599</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4423,10 +4423,10 @@
         <v>22</v>
       </c>
       <c r="J3">
-        <v>-3.4909960999999998</v>
+        <v>13.299003900000001</v>
       </c>
       <c r="K3">
-        <v>40.441647655136997</v>
+        <v>36.244147655136999</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4437,10 +4437,10 @@
         <v>22</v>
       </c>
       <c r="J4">
-        <v>-3.866225</v>
+        <v>14.813775</v>
       </c>
       <c r="K4">
-        <v>45.044241181506798</v>
+        <v>40.374241181506797</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4451,10 +4451,10 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>-3.5617165625</v>
+        <v>13.858283437500001</v>
       </c>
       <c r="K5">
-        <v>42.123374346104399</v>
+        <v>37.768374346104402</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4465,10 +4465,10 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>-4.0236586499999998</v>
+        <v>15.106341349999999</v>
       </c>
       <c r="K6">
-        <v>45.952161237842503</v>
+        <v>41.169661237842497</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4479,10 +4479,10 @@
         <v>22</v>
       </c>
       <c r="J7">
-        <v>-4.3825614750000002</v>
+        <v>16.337438525</v>
       </c>
       <c r="K7">
-        <v>49.7067773550514</v>
+        <v>44.526777355051401</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4493,10 +4493,10 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>-5.0328530125000004</v>
+        <v>18.667146987500001</v>
       </c>
       <c r="K8">
-        <v>56.799309143536</v>
+        <v>50.874309143536003</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4507,10 +4507,10 @@
         <v>22</v>
       </c>
       <c r="J9">
-        <v>-5.2742167999999996</v>
+        <v>19.5757832</v>
       </c>
       <c r="K9">
-        <v>59.562937761643802</v>
+        <v>53.350437761643803</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4521,10 +4521,10 @@
         <v>22</v>
       </c>
       <c r="J10">
-        <v>-4.9050381562499998</v>
+        <v>20.459961843750001</v>
       </c>
       <c r="K10">
-        <v>59.828793785637799</v>
+        <v>53.487543785637797</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4535,10 +4535,10 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <v>-5.8500086874999999</v>
+        <v>22.524991312499999</v>
       </c>
       <c r="K11">
-        <v>66.560282993792796</v>
+        <v>59.466532993792796</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4549,10 +4549,10 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <v>-5.1433449837499996</v>
+        <v>22.691655016249999</v>
       </c>
       <c r="K12">
-        <v>64.655082821279905</v>
+        <v>57.696332821280002</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4563,10 +4563,10 @@
         <v>22</v>
       </c>
       <c r="J13">
-        <v>-5.0041852474999997</v>
+        <v>22.755814752500001</v>
       </c>
       <c r="K13">
-        <v>63.889854531053103</v>
+        <v>56.949854531053099</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4577,10 +4577,10 @@
         <v>22</v>
       </c>
       <c r="J14">
-        <v>-4.8006345762500002</v>
+        <v>22.554365423749999</v>
       </c>
       <c r="K14">
-        <v>62.970076452281702</v>
+        <v>56.131326452281698</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4591,10 +4591,10 @@
         <v>22</v>
       </c>
       <c r="J15">
-        <v>-4.8750024749999996</v>
+        <v>21.554997525000001</v>
       </c>
       <c r="K15">
-        <v>61.738736920119898</v>
+        <v>55.131236920119903</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4605,10 +4605,10 @@
         <v>22</v>
       </c>
       <c r="J16">
-        <v>-5.3581296875</v>
+        <v>23.2118703125</v>
       </c>
       <c r="K16">
-        <v>66.514409134203802</v>
+        <v>59.371909134203797</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4621,7 +4621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D5D252-7072-4530-B815-D9EB0D4F0733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAC9BD5-5825-473A-9449-AC71E584B7AF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4647,10 +4647,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>-3.92870835</v>
+        <v>14.04129165</v>
       </c>
       <c r="K2">
-        <v>42.425985306678101</v>
+        <v>37.933485306678101</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4661,10 +4661,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>-4.0077629999999997</v>
+        <v>14.782237</v>
       </c>
       <c r="K3">
-        <v>44.632625681506902</v>
+        <v>39.935125681506797</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4675,10 +4675,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>-4.777021875</v>
+        <v>17.152978125000001</v>
       </c>
       <c r="K4">
-        <v>51.823734920804803</v>
+        <v>46.341234920804801</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4689,10 +4689,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>-4.1952390624999998</v>
+        <v>15.724760937499999</v>
       </c>
       <c r="K5">
-        <v>47.460535793022302</v>
+        <v>42.480535793022298</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4703,10 +4703,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>-4.8555387999999997</v>
+        <v>17.774461200000001</v>
       </c>
       <c r="K6">
-        <v>53.674802508219202</v>
+        <v>48.017302508219203</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4717,10 +4717,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>-5.0269515624999999</v>
+        <v>18.6930484375</v>
       </c>
       <c r="K7">
-        <v>56.428998164597601</v>
+        <v>50.498998164597602</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4731,10 +4731,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>-5.2240245512500003</v>
+        <v>19.70097544875</v>
       </c>
       <c r="K8">
-        <v>59.453649973428902</v>
+        <v>53.2223999734289</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4745,10 +4745,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>-5.4024997050000003</v>
+        <v>20.497500294999998</v>
       </c>
       <c r="K9">
-        <v>61.849200268715698</v>
+        <v>55.374200268715697</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4759,10 +4759,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>-4.9980775499999996</v>
+        <v>21.641922449999999</v>
       </c>
       <c r="K10">
-        <v>63.018491990239703</v>
+        <v>56.358491990239699</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4773,10 +4773,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>-6.6009279999999997</v>
+        <v>21.399072</v>
       </c>
       <c r="K11">
-        <v>68.607149808219205</v>
+        <v>61.607149808219198</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4787,10 +4787,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>-6.4485904812500001</v>
+        <v>22.536409518749998</v>
       </c>
       <c r="K12">
-        <v>71.650435291545406</v>
+        <v>64.404185291545403</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4801,10 +4801,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>-6.0544579499999998</v>
+        <v>21.530542050000001</v>
       </c>
       <c r="K13">
-        <v>70.251587090239695</v>
+        <v>63.355337090239701</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4815,10 +4815,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>-6.7197925200000004</v>
+        <v>20.935207479999999</v>
       </c>
       <c r="K14">
-        <v>68.846537171095903</v>
+        <v>61.932787171095903</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4829,10 +4829,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>-5.8015131337500003</v>
+        <v>22.853486866250002</v>
       </c>
       <c r="K15">
-        <v>71.907802940971706</v>
+        <v>64.744052940971699</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4843,10 +4843,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>-5.9366007874999998</v>
+        <v>21.758399212499999</v>
       </c>
       <c r="K16">
-        <v>70.595437868107894</v>
+        <v>63.671687868107902</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4859,7 +4859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33678D4-FD19-46D4-A68D-93F123662830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D0A39-5F11-4AD2-9D1E-97183E948F35}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4885,10 +4885,10 @@
         <v>23</v>
       </c>
       <c r="J2">
-        <v>-3.6972138499999998</v>
+        <v>15.02278615</v>
       </c>
       <c r="K2">
-        <v>40.602480174828798</v>
+        <v>35.922480174828799</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4899,10 +4899,10 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>-3.7084627625</v>
+        <v>15.831537237499999</v>
       </c>
       <c r="K3">
-        <v>42.738814320762003</v>
+        <v>37.853814320761998</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4913,10 +4913,10 @@
         <v>23</v>
       </c>
       <c r="J4">
-        <v>-3.9167411250000002</v>
+        <v>17.263258874999998</v>
       </c>
       <c r="K4">
-        <v>46.570883911387</v>
+        <v>41.275883911386998</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4927,10 +4927,10 @@
         <v>23</v>
       </c>
       <c r="J5">
-        <v>-4.0684930625</v>
+        <v>17.851506937500002</v>
       </c>
       <c r="K5">
-        <v>48.162862991652403</v>
+        <v>42.682862991652399</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4941,10 +4941,10 @@
         <v>23</v>
       </c>
       <c r="J6">
-        <v>-4.2324480624999996</v>
+        <v>18.147551937500001</v>
       </c>
       <c r="K6">
-        <v>48.985454481378397</v>
+        <v>43.390454481378399</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4955,10 +4955,10 @@
         <v>23</v>
       </c>
       <c r="J7">
-        <v>-4.6512971412499997</v>
+        <v>20.34370285875</v>
       </c>
       <c r="K7">
-        <v>54.8898242853125</v>
+        <v>48.641074285312499</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4969,10 +4969,10 @@
         <v>23</v>
       </c>
       <c r="J8">
-        <v>-5.1265802425000002</v>
+        <v>21.9734197575</v>
       </c>
       <c r="K8">
-        <v>59.3126587592551</v>
+        <v>52.537658759255102</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4983,10 +4983,10 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>-5.5580121</v>
+        <v>23.691987900000001</v>
       </c>
       <c r="K9">
-        <v>63.959187956506803</v>
+        <v>56.646687956506803</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4997,10 +4997,10 @@
         <v>23</v>
       </c>
       <c r="J10">
-        <v>-6.3130160662500003</v>
+        <v>24.90198393375</v>
       </c>
       <c r="K10">
-        <v>71.072226619302199</v>
+        <v>63.268476619302199</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5011,10 +5011,10 @@
         <v>23</v>
       </c>
       <c r="J11">
-        <v>-8.0741724000000001</v>
+        <v>27.925827600000002</v>
       </c>
       <c r="K11">
-        <v>78.432488305479495</v>
+        <v>69.432488305479495</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5025,10 +5025,10 @@
         <v>23</v>
       </c>
       <c r="J12">
-        <v>-7.8118113500000002</v>
+        <v>29.04818865</v>
       </c>
       <c r="K12">
-        <v>78.715185714212296</v>
+        <v>69.500185714212293</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5039,10 +5039,10 @@
         <v>23</v>
       </c>
       <c r="J13">
-        <v>-7.0532060000000003</v>
+        <v>30.656794000000001</v>
       </c>
       <c r="K13">
-        <v>82.291931636986305</v>
+        <v>72.864431636986296</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5053,10 +5053,10 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>-7.6246397000000004</v>
+        <v>31.0053603</v>
       </c>
       <c r="K14">
-        <v>84.280365404452098</v>
+        <v>74.622865404452099</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5067,10 +5067,10 @@
         <v>23</v>
       </c>
       <c r="J15">
-        <v>-8.3050134999999994</v>
+        <v>32.174986500000003</v>
       </c>
       <c r="K15">
-        <v>88.513321868150697</v>
+        <v>78.393321868150693</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5081,10 +5081,10 @@
         <v>23</v>
       </c>
       <c r="J16">
-        <v>-9.4271434000000003</v>
+        <v>31.892856600000002</v>
       </c>
       <c r="K16">
-        <v>91.233840644520598</v>
+        <v>80.903840644520599</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5097,7 +5097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CFCA25-C451-4688-872E-96F5F6A72913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D44746-795C-456F-B469-280FB30F0035}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5123,10 +5123,10 @@
         <v>24</v>
       </c>
       <c r="J2">
-        <v>-1.314576953</v>
+        <v>4.875423047</v>
       </c>
       <c r="K2">
-        <v>19.854785334140399</v>
+        <v>18.307285334140399</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5137,10 +5137,10 @@
         <v>24</v>
       </c>
       <c r="J3">
-        <v>-1.0512474775</v>
+        <v>4.7087525225000002</v>
       </c>
       <c r="K3">
-        <v>19.121444746087299</v>
+        <v>17.681444746087301</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5151,10 +5151,10 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>-1.642550942</v>
+        <v>6.1774490579999997</v>
       </c>
       <c r="K4">
-        <v>25.151440475226</v>
+        <v>23.196440475226002</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5165,10 +5165,10 @@
         <v>24</v>
       </c>
       <c r="J5">
-        <v>-1.197053309</v>
+        <v>5.252946691</v>
       </c>
       <c r="K5">
-        <v>21.337387984784201</v>
+        <v>19.7248879847842</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5179,10 +5179,10 @@
         <v>24</v>
       </c>
       <c r="J6">
-        <v>-2.0506940624999999</v>
+        <v>6.8293059375</v>
       </c>
       <c r="K6">
-        <v>27.8697310498716</v>
+        <v>25.649731049871601</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5193,10 +5193,10 @@
         <v>24</v>
       </c>
       <c r="J7">
-        <v>-1.8552588000000001</v>
+        <v>7.1147412000000001</v>
       </c>
       <c r="K7">
-        <v>28.959820179452102</v>
+        <v>26.717320179452098</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5207,10 +5207,10 @@
         <v>24</v>
       </c>
       <c r="J8">
-        <v>-2.4641074000000001</v>
+        <v>7.9858925999999997</v>
       </c>
       <c r="K8">
-        <v>32.607488493835604</v>
+        <v>29.994988493835599</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5221,10 +5221,10 @@
         <v>24</v>
       </c>
       <c r="J9">
-        <v>-2.2936039125000001</v>
+        <v>8.3063960874999996</v>
       </c>
       <c r="K9">
-        <v>33.842694128809903</v>
+        <v>31.192694128809901</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5235,10 +5235,10 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>-2.07174535</v>
+        <v>9.0682546500000001</v>
       </c>
       <c r="K10">
-        <v>34.603024008732902</v>
+        <v>31.818024008732898</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5249,10 +5249,10 @@
         <v>24</v>
       </c>
       <c r="J11">
-        <v>-1.9770622</v>
+        <v>9.5229377999999993</v>
       </c>
       <c r="K11">
-        <v>35.149147741780801</v>
+        <v>32.274147741780801</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5263,10 +5263,10 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>-2.0612376000000001</v>
+        <v>9.7987623999999993</v>
       </c>
       <c r="K12">
-        <v>35.3318546054794</v>
+        <v>32.366854605479503</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5277,10 +5277,10 @@
         <v>24</v>
       </c>
       <c r="J13">
-        <v>-1.83664095</v>
+        <v>9.1233590499999995</v>
       </c>
       <c r="K13">
-        <v>33.798489004623299</v>
+        <v>31.058489004623301</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5291,10 +5291,10 @@
         <v>24</v>
       </c>
       <c r="J14">
-        <v>-2.0324356250000002</v>
+        <v>8.0975643749999993</v>
       </c>
       <c r="K14">
-        <v>31.898793837756902</v>
+        <v>29.366293837756899</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5305,10 +5305,10 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <v>-1.9115183499999999</v>
+        <v>7.8184816499999998</v>
       </c>
       <c r="K15">
-        <v>31.7947028751712</v>
+        <v>29.362202875171199</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5319,10 +5319,10 @@
         <v>24</v>
       </c>
       <c r="J16">
-        <v>-1.59313295</v>
+        <v>8.9768670499999992</v>
       </c>
       <c r="K16">
-        <v>33.953155840239702</v>
+        <v>31.310655840239701</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5335,7 +5335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F0E16-B244-4D9C-968C-BC1365F88C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E24D04-F9C8-408B-A69D-4C8B4493F131}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5361,10 +5361,10 @@
         <v>25</v>
       </c>
       <c r="J2">
-        <v>-2.623310375</v>
+        <v>7.5966896249999998</v>
       </c>
       <c r="K2">
-        <v>27.1203810184075</v>
+        <v>24.5653810184075</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5375,10 +5375,10 @@
         <v>25</v>
       </c>
       <c r="J3">
-        <v>-2.2880500499999998</v>
+        <v>7.5019499500000002</v>
       </c>
       <c r="K3">
-        <v>26.701556348116402</v>
+        <v>24.2540563481164</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5389,10 +5389,10 @@
         <v>25</v>
       </c>
       <c r="J4">
-        <v>-3.1911423000000001</v>
+        <v>9.4888577000000005</v>
       </c>
       <c r="K4">
-        <v>33.850893794178099</v>
+        <v>30.6808937941781</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5403,10 +5403,10 @@
         <v>25</v>
       </c>
       <c r="J5">
-        <v>-2.5907007000000002</v>
+        <v>8.3292993000000006</v>
       </c>
       <c r="K5">
-        <v>29.659955996917802</v>
+        <v>26.929955996917801</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5417,10 +5417,10 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>-3.2175324249999999</v>
+        <v>9.6624675750000009</v>
       </c>
       <c r="K6">
-        <v>34.461974887071896</v>
+        <v>31.241974887071901</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5431,10 +5431,10 @@
         <v>25</v>
       </c>
       <c r="J7">
-        <v>-3.1753318625000002</v>
+        <v>10.0446681375</v>
       </c>
       <c r="K7">
-        <v>35.780046664255103</v>
+        <v>32.475046664255103</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5445,10 +5445,10 @@
         <v>25</v>
       </c>
       <c r="J8">
-        <v>-3.7718580249999998</v>
+        <v>11.178141975000001</v>
       </c>
       <c r="K8">
-        <v>39.880778204880102</v>
+        <v>36.143278204880097</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5459,10 +5459,10 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>-3.9268946874999999</v>
+        <v>12.173105312500001</v>
       </c>
       <c r="K9">
-        <v>43.381709973244902</v>
+        <v>39.356709973244897</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5473,10 +5473,10 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>-4.0637451000000002</v>
+        <v>12.0762549</v>
       </c>
       <c r="K10">
-        <v>44.021922576369903</v>
+        <v>39.986922576369899</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5487,10 +5487,10 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>-4.8778707375000003</v>
+        <v>13.8721292625</v>
       </c>
       <c r="K11">
-        <v>53.833837547388697</v>
+        <v>49.146337547388697</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5501,10 +5501,10 @@
         <v>25</v>
       </c>
       <c r="J12">
-        <v>-4.537603625</v>
+        <v>12.572396375</v>
       </c>
       <c r="K12">
-        <v>50.829318714469203</v>
+        <v>46.551818714469199</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5515,10 +5515,10 @@
         <v>25</v>
       </c>
       <c r="J13">
-        <v>-4.2351215</v>
+        <v>11.474878500000001</v>
       </c>
       <c r="K13">
-        <v>48.894191333904097</v>
+        <v>44.966691333904102</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5529,10 +5529,10 @@
         <v>25</v>
       </c>
       <c r="J14">
-        <v>-4.0675438750000001</v>
+        <v>11.062456125000001</v>
       </c>
       <c r="K14">
-        <v>46.5916119961473</v>
+        <v>42.809111996147301</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5543,10 +5543,10 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>-3.4281096</v>
+        <v>10.0518904</v>
       </c>
       <c r="K15">
-        <v>45.184904112328802</v>
+        <v>41.814904112328797</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5557,10 +5557,10 @@
         <v>25</v>
       </c>
       <c r="J16">
-        <v>-3.7710027500000001</v>
+        <v>10.548997249999999</v>
       </c>
       <c r="K16">
-        <v>46.778312331335599</v>
+        <v>43.1983123313356</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5573,7 +5573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615DF5B6-AF18-4CC9-9909-C7F4170C4F4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B356B7-A4B6-4B63-8D8D-2E63993CE37E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5599,10 +5599,10 @@
         <v>26</v>
       </c>
       <c r="J2">
-        <v>-3.6384439875000001</v>
+        <v>13.5815560125</v>
       </c>
       <c r="K2">
-        <v>37.226115106464</v>
+        <v>32.921115106464001</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5613,10 +5613,10 @@
         <v>26</v>
       </c>
       <c r="J3">
-        <v>-3.4274719125000002</v>
+        <v>13.612528087499999</v>
       </c>
       <c r="K3">
-        <v>37.256246060316798</v>
+        <v>32.9962460603168</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5627,10 +5627,10 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>-3.9663893125</v>
+        <v>15.463610687499999</v>
       </c>
       <c r="K4">
-        <v>42.340679519905798</v>
+        <v>37.483179519905804</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5641,10 +5641,10 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>-3.9104980249999999</v>
+        <v>15.259501974999999</v>
       </c>
       <c r="K5">
-        <v>41.780891629537699</v>
+        <v>36.988391629537702</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5655,10 +5655,10 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <v>-3.5836581249999999</v>
+        <v>14.546341875</v>
       </c>
       <c r="K6">
-        <v>39.792278914811597</v>
+        <v>35.259778914811598</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5669,10 +5669,10 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>-3.6621739125000001</v>
+        <v>15.057826087500001</v>
       </c>
       <c r="K7">
-        <v>41.179505121960602</v>
+        <v>36.499505121960603</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5683,10 +5683,10 @@
         <v>26</v>
       </c>
       <c r="J8">
-        <v>-4.0951320500000001</v>
+        <v>16.604867949999999</v>
       </c>
       <c r="K8">
-        <v>45.424892601541103</v>
+        <v>40.249892601541099</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5697,10 +5697,10 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <v>-4.6736652249999997</v>
+        <v>17.926334775000001</v>
       </c>
       <c r="K9">
-        <v>49.105662881592501</v>
+        <v>43.455662881592502</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5711,10 +5711,10 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>-5.4820425000000004</v>
+        <v>17.657957499999998</v>
       </c>
       <c r="K10">
-        <v>52.033195556506797</v>
+        <v>46.248195556506801</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5725,10 +5725,10 @@
         <v>26</v>
       </c>
       <c r="J11">
-        <v>-6.4941515125000002</v>
+        <v>20.1808484875</v>
       </c>
       <c r="K11">
-        <v>60.399989932919503</v>
+        <v>53.7312399329195</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5739,10 +5739,10 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>-6.2994970337499998</v>
+        <v>20.635502966250002</v>
       </c>
       <c r="K12">
-        <v>61.638655080355299</v>
+        <v>54.904905080355299</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5753,10 +5753,10 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>-6.78818935375</v>
+        <v>20.596810646249999</v>
       </c>
       <c r="K13">
-        <v>62.385855557615599</v>
+        <v>55.539605557615602</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5767,10 +5767,10 @@
         <v>26</v>
       </c>
       <c r="J14">
-        <v>-7.0327970925000001</v>
+        <v>21.047202907500001</v>
       </c>
       <c r="K14">
-        <v>63.869747218330502</v>
+        <v>56.849747218330499</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5781,10 +5781,10 @@
         <v>26</v>
       </c>
       <c r="J15">
-        <v>-7.1754532124999999</v>
+        <v>20.554546787500001</v>
       </c>
       <c r="K15">
-        <v>65.528123577097602</v>
+        <v>58.595623577097598</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5795,10 +5795,10 @@
         <v>26</v>
       </c>
       <c r="J16">
-        <v>-6.9817177849999998</v>
+        <v>22.038282214999999</v>
       </c>
       <c r="K16">
-        <v>69.245922596934903</v>
+        <v>61.990922596934901</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5811,7 +5811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76882AB-CFC4-4300-A9A1-E84366DEB537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3907109-55B1-43ED-84D5-5E891F0EED4D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5837,10 +5837,10 @@
         <v>27</v>
       </c>
       <c r="J2">
-        <v>-5.41412125</v>
+        <v>18.555878750000002</v>
       </c>
       <c r="K2">
-        <v>63.888982367294503</v>
+        <v>57.896482367294503</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5851,10 +5851,10 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>-5.4090018500000001</v>
+        <v>18.88099815</v>
       </c>
       <c r="K3">
-        <v>64.983318955650702</v>
+        <v>58.910818955650697</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5865,10 +5865,10 @@
         <v>27</v>
       </c>
       <c r="J4">
-        <v>-5.8719436500000004</v>
+        <v>20.83305635</v>
       </c>
       <c r="K4">
-        <v>71.677807830308197</v>
+        <v>65.001557830308201</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5879,10 +5879,10 @@
         <v>27</v>
       </c>
       <c r="J5">
-        <v>-5.6241478975000003</v>
+        <v>20.0958521025</v>
       </c>
       <c r="K5">
-        <v>69.131406837388695</v>
+        <v>62.701406837388703</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5893,10 +5893,10 @@
         <v>27</v>
       </c>
       <c r="J6">
-        <v>-5.7290269</v>
+        <v>20.5509731</v>
       </c>
       <c r="K6">
-        <v>70.691448505821896</v>
+        <v>64.121448505821903</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5907,10 +5907,10 @@
         <v>27</v>
       </c>
       <c r="J7">
-        <v>-5.6632103799999998</v>
+        <v>20.831789619999999</v>
       </c>
       <c r="K7">
-        <v>71.621350540205498</v>
+        <v>64.997600540205497</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5921,10 +5921,10 @@
         <v>27</v>
       </c>
       <c r="J8">
-        <v>-5.9884768749999999</v>
+        <v>21.836523124999999</v>
       </c>
       <c r="K8">
-        <v>75.088763054366396</v>
+        <v>68.132513054366399</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5935,10 +5935,10 @@
         <v>27</v>
       </c>
       <c r="J9">
-        <v>-6.0755637450000002</v>
+        <v>22.349436255000001</v>
       </c>
       <c r="K9">
-        <v>76.8391101143322</v>
+        <v>69.732860114332198</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5949,10 +5949,10 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <v>-5.9951898837500002</v>
+        <v>22.719810116249999</v>
       </c>
       <c r="K10">
-        <v>78.067222128471798</v>
+        <v>70.888472128471705</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5963,10 +5963,10 @@
         <v>27</v>
       </c>
       <c r="J11">
-        <v>-6.0187544500000003</v>
+        <v>23.956245549999998</v>
       </c>
       <c r="K11">
-        <v>81.244770804280805</v>
+        <v>73.751020804280799</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5977,10 +5977,10 @@
         <v>27</v>
       </c>
       <c r="J12">
-        <v>-6.4573951137499996</v>
+        <v>24.727604886249999</v>
       </c>
       <c r="K12">
-        <v>81.309020011314203</v>
+        <v>73.512770011314203</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5991,10 +5991,10 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>-6.2693638812500003</v>
+        <v>25.56563611875</v>
       </c>
       <c r="K13">
-        <v>82.393957408668697</v>
+        <v>74.435207408668603</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6005,10 +6005,10 @@
         <v>27</v>
       </c>
       <c r="J14">
-        <v>-5.8220361525</v>
+        <v>26.9579638475</v>
       </c>
       <c r="K14">
-        <v>84.280454243604495</v>
+        <v>76.085454243604403</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6019,10 +6019,10 @@
         <v>27</v>
       </c>
       <c r="J15">
-        <v>-5.3515342874999998</v>
+        <v>26.1784657125</v>
       </c>
       <c r="K15">
-        <v>83.775993160916101</v>
+        <v>75.893493160916094</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6033,10 +6033,10 @@
         <v>27</v>
       </c>
       <c r="J16">
-        <v>-5.9679383374999997</v>
+        <v>26.002061662500001</v>
       </c>
       <c r="K16">
-        <v>84.540902392594205</v>
+        <v>76.548402392594198</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6049,7 +6049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FBB1FD-EF45-4E5A-B08D-5206B63183AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7BAB75-8313-43DA-AF8B-4A0341D84A14}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6075,10 +6075,10 @@
         <v>28</v>
       </c>
       <c r="J2">
-        <v>-2.040788</v>
+        <v>7.4292119999999997</v>
       </c>
       <c r="K2">
-        <v>28.213475082191799</v>
+        <v>25.845975082191799</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6089,10 +6089,10 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>-2.2951149000000002</v>
+        <v>7.9948851000000003</v>
       </c>
       <c r="K3">
-        <v>30.383685574315098</v>
+        <v>27.8111855743151</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6103,10 +6103,10 @@
         <v>28</v>
       </c>
       <c r="J4">
-        <v>-3.0756143124999999</v>
+        <v>10.354385687500001</v>
       </c>
       <c r="K4">
-        <v>39.373047413741403</v>
+        <v>36.015547413741402</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6117,10 +6117,10 @@
         <v>28</v>
       </c>
       <c r="J5">
-        <v>-2.6525604500000002</v>
+        <v>9.2674395500000006</v>
       </c>
       <c r="K5">
-        <v>35.2147688796233</v>
+        <v>32.234768879623303</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6131,10 +6131,10 @@
         <v>28</v>
       </c>
       <c r="J6">
-        <v>-3.2204688374999999</v>
+        <v>10.6595311625</v>
       </c>
       <c r="K6">
-        <v>40.546889812114699</v>
+        <v>37.0768898121147</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6145,10 +6145,10 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <v>-3.3637135499999999</v>
+        <v>11.606286450000001</v>
       </c>
       <c r="K7">
-        <v>44.113791401198597</v>
+        <v>40.371291401198597</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6159,10 +6159,10 @@
         <v>28</v>
       </c>
       <c r="J8">
-        <v>-4.0772378124999999</v>
+        <v>13.122762187499999</v>
       </c>
       <c r="K8">
-        <v>49.944706713399</v>
+        <v>45.644706713399003</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6173,10 +6173,10 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <v>-4.7407304999999997</v>
+        <v>14.6092695</v>
       </c>
       <c r="K9">
-        <v>55.657004542808203</v>
+        <v>50.819504542808197</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6187,10 +6187,10 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <v>-5.3896356499999998</v>
+        <v>15.75036435</v>
       </c>
       <c r="K10">
-        <v>58.388340419349298</v>
+        <v>53.103340419349301</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6201,10 +6201,10 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>-4.7555081875000003</v>
+        <v>16.994491812500002</v>
       </c>
       <c r="K11">
-        <v>60.1165208824914</v>
+        <v>54.6790208824914</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6215,10 +6215,10 @@
         <v>28</v>
       </c>
       <c r="J12">
-        <v>-4.2417469499999996</v>
+        <v>17.11825305</v>
       </c>
       <c r="K12">
-        <v>59.314066874486301</v>
+        <v>53.974066874486297</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6229,10 +6229,10 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <v>-3.87322145</v>
+        <v>16.836778549999998</v>
       </c>
       <c r="K13">
-        <v>57.564045088527401</v>
+        <v>52.386545088527399</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6243,10 +6243,10 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>-3.3631763124999998</v>
+        <v>17.016823687500001</v>
       </c>
       <c r="K14">
-        <v>56.4994653110017</v>
+        <v>51.404465311001701</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6257,10 +6257,10 @@
         <v>28</v>
       </c>
       <c r="J15">
-        <v>-3.5553959499999999</v>
+        <v>16.924604049999999</v>
       </c>
       <c r="K15">
-        <v>58.283451727226002</v>
+        <v>53.163451727225997</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6271,10 +6271,10 @@
         <v>28</v>
       </c>
       <c r="J16">
-        <v>-3.8218567999999999</v>
+        <v>17.498143200000001</v>
       </c>
       <c r="K16">
-        <v>59.701916254794497</v>
+        <v>54.371916254794499</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6287,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA640C1-B2FA-40BF-99BE-C1AA1CBD6178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D89E1E2-4C84-4201-803A-7C34884085CD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6313,10 +6313,10 @@
         <v>29</v>
       </c>
       <c r="J2">
-        <v>-6.5168679000000003</v>
+        <v>14.453132099999999</v>
       </c>
       <c r="K2">
-        <v>60.562573139383602</v>
+        <v>55.320073139383602</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6327,10 +6327,10 @@
         <v>29</v>
       </c>
       <c r="J3">
-        <v>-6.9770140625000003</v>
+        <v>14.562985937500001</v>
       </c>
       <c r="K3">
-        <v>64.865322008775706</v>
+        <v>59.480322008775701</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6341,10 +6341,10 @@
         <v>29</v>
       </c>
       <c r="J4">
-        <v>-7.0090858125000004</v>
+        <v>14.920914187499999</v>
       </c>
       <c r="K4">
-        <v>69.910709809289401</v>
+        <v>64.428209809289399</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6355,10 +6355,10 @@
         <v>29</v>
       </c>
       <c r="J5">
-        <v>-6.9442478000000003</v>
+        <v>14.475752200000001</v>
       </c>
       <c r="K5">
-        <v>67.4017057856164</v>
+        <v>62.046705785616403</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6369,10 +6369,10 @@
         <v>29</v>
       </c>
       <c r="J6">
-        <v>-6.8070757249999998</v>
+        <v>14.572924275</v>
       </c>
       <c r="K6">
-        <v>69.920618246318497</v>
+        <v>64.575618246318498</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6383,10 +6383,10 @@
         <v>29</v>
       </c>
       <c r="J7">
-        <v>-6.7742549250000001</v>
+        <v>15.195745075</v>
       </c>
       <c r="K7">
-        <v>73.400755512071896</v>
+        <v>67.908255512071904</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6397,10 +6397,10 @@
         <v>29</v>
       </c>
       <c r="J8">
-        <v>-7.2433011374999996</v>
+        <v>16.456698862500001</v>
       </c>
       <c r="K8">
-        <v>78.308975969306502</v>
+        <v>72.383975969306505</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6411,10 +6411,10 @@
         <v>29</v>
       </c>
       <c r="J9">
-        <v>-7.6972443999999998</v>
+        <v>16.652755599999999</v>
       </c>
       <c r="K9">
-        <v>80.353475483561596</v>
+        <v>74.265975483561604</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6425,10 +6425,10 @@
         <v>29</v>
       </c>
       <c r="J10">
-        <v>-7.8199869299999998</v>
+        <v>16.520013070000001</v>
       </c>
       <c r="K10">
-        <v>81.979955636609603</v>
+        <v>75.894955636609595</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6439,10 +6439,10 @@
         <v>29</v>
       </c>
       <c r="J11">
-        <v>-7.6436901749999997</v>
+        <v>16.256309824999999</v>
       </c>
       <c r="K11">
-        <v>81.705826653339003</v>
+        <v>75.730826653338994</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6453,10 +6453,10 @@
         <v>29</v>
       </c>
       <c r="J12">
-        <v>-7.3828678999999999</v>
+        <v>15.9771321</v>
       </c>
       <c r="K12">
-        <v>79.882169029794497</v>
+        <v>74.042169029794493</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6467,10 +6467,10 @@
         <v>29</v>
       </c>
       <c r="J13">
-        <v>-7.1543355499999999</v>
+        <v>16.055664449999998</v>
       </c>
       <c r="K13">
-        <v>80.221035942294506</v>
+        <v>74.418535942294497</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6481,10 +6481,10 @@
         <v>29</v>
       </c>
       <c r="J14">
-        <v>-6.7847687749999999</v>
+        <v>16.095231224999999</v>
       </c>
       <c r="K14">
-        <v>80.317110001969198</v>
+        <v>74.597110001969199</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6495,10 +6495,10 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>-6.5894450249999998</v>
+        <v>16.140554975000001</v>
       </c>
       <c r="K15">
-        <v>80.471046187756798</v>
+        <v>74.788546187756793</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6509,10 +6509,10 @@
         <v>29</v>
       </c>
       <c r="J16">
-        <v>-7.0173279362500001</v>
+        <v>17.02767206375</v>
       </c>
       <c r="K16">
-        <v>85.747016915569304</v>
+        <v>79.7357669155693</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6525,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5B7F39-204D-49EC-8CDA-599E900BD78B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2434AF57-B4F5-4E88-8EB3-46FFAFB49B8C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6551,10 +6551,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>-3.8137806374999998</v>
+        <v>12.9062193625</v>
       </c>
       <c r="K2">
-        <v>38.702099953895498</v>
+        <v>34.522099953895498</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6565,10 +6565,10 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>-3.7850487249999998</v>
+        <v>13.254951275</v>
       </c>
       <c r="K3">
-        <v>39.714025194948597</v>
+        <v>35.454025194948599</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6579,10 +6579,10 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>-4.6887329250000001</v>
+        <v>15.491267075</v>
       </c>
       <c r="K4">
-        <v>46.479950354537699</v>
+        <v>41.434950354537698</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6593,10 +6593,10 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>-4.2147888</v>
+        <v>14.205211200000001</v>
       </c>
       <c r="K5">
-        <v>42.601190350684902</v>
+        <v>37.996190350684898</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6607,10 +6607,10 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>-4.8776742874999997</v>
+        <v>16.002325712499999</v>
       </c>
       <c r="K6">
-        <v>48.023158297902398</v>
+        <v>42.803158297902399</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6621,10 +6621,10 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>-5.0799707249999999</v>
+        <v>16.890029275</v>
       </c>
       <c r="K7">
-        <v>50.670581722345901</v>
+        <v>45.178081722345901</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6635,10 +6635,10 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>-5.3663404750000003</v>
+        <v>17.833659525000002</v>
       </c>
       <c r="K8">
-        <v>53.500160461215799</v>
+        <v>47.700160461215802</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6649,10 +6649,10 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>-5.4303478500000004</v>
+        <v>18.419652150000001</v>
       </c>
       <c r="K9">
-        <v>55.230025318664403</v>
+        <v>49.267525318664397</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6663,10 +6663,10 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>-5.3265693900000004</v>
+        <v>20.113430610000002</v>
       </c>
       <c r="K10">
-        <v>59.4531902927055</v>
+        <v>53.093190292705501</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>-5.5070850575000003</v>
+        <v>20.667914942500001</v>
       </c>
       <c r="K11">
-        <v>60.964045236977697</v>
+        <v>54.420295236977701</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6691,10 +6691,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>-5.6357419425000002</v>
+        <v>20.4492580575</v>
       </c>
       <c r="K12">
-        <v>61.169182060967501</v>
+        <v>54.647932060967499</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6705,10 +6705,10 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>-5.3050707824999996</v>
+        <v>19.954929217499998</v>
       </c>
       <c r="K13">
-        <v>59.6304046819264</v>
+        <v>53.315404681926402</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6719,10 +6719,10 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>-5.6193258037499998</v>
+        <v>20.83567419625</v>
       </c>
       <c r="K14">
-        <v>61.365584875594998</v>
+        <v>54.751834875595002</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6733,10 +6733,10 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>-5.3486941725000001</v>
+        <v>20.481305827500002</v>
       </c>
       <c r="K15">
-        <v>61.173242036275703</v>
+        <v>54.715742036275699</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6747,10 +6747,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>-4.8643185500000001</v>
+        <v>21.105681449999999</v>
       </c>
       <c r="K16">
-        <v>62.486476897773997</v>
+        <v>55.993976897773997</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6763,7 +6763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF4E7AE-839F-4231-BBFF-8B4D16A63B3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1B8F6-EB97-4ED8-9ED3-F7EF3486EF1F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6789,10 +6789,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>-6.0338621374999999</v>
+        <v>15.186137862500001</v>
       </c>
       <c r="K2">
-        <v>53.868698411087301</v>
+        <v>48.563698411087302</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6803,10 +6803,10 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>-5.7259557499999998</v>
+        <v>15.56404425</v>
       </c>
       <c r="K3">
-        <v>53.864256060787703</v>
+        <v>48.541756060787698</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6817,10 +6817,10 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>-5.8208538499999998</v>
+        <v>17.109146150000001</v>
       </c>
       <c r="K4">
-        <v>57.213788804965802</v>
+        <v>51.4812888049658</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6831,10 +6831,10 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>-5.8050441499999996</v>
+        <v>16.364955850000001</v>
       </c>
       <c r="K5">
-        <v>55.327069256678101</v>
+        <v>49.784569256678097</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6845,10 +6845,10 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>-5.4366234249999996</v>
+        <v>16.693376574999998</v>
       </c>
       <c r="K6">
-        <v>55.935649006934902</v>
+        <v>50.403149006934903</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6859,10 +6859,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>-5.4779385249999999</v>
+        <v>16.492061475</v>
       </c>
       <c r="K7">
-        <v>56.669183261386998</v>
+        <v>51.176683261386998</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6873,10 +6873,10 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>-5.8176252499999999</v>
+        <v>16.38237475</v>
       </c>
       <c r="K8">
-        <v>58.932310422089003</v>
+        <v>53.382310422088999</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6887,10 +6887,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>-5.8584880500000001</v>
+        <v>16.99151195</v>
       </c>
       <c r="K9">
-        <v>61.770005574143802</v>
+        <v>56.057505574143804</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6901,10 +6901,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>-5.9512897799999998</v>
+        <v>18.088710219999999</v>
       </c>
       <c r="K10">
-        <v>65.664315595684897</v>
+        <v>59.654315595684899</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6915,10 +6915,10 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>-6.3008744500000002</v>
+        <v>19.899125550000001</v>
       </c>
       <c r="K11">
-        <v>70.913930941267097</v>
+        <v>64.3639309412671</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6929,10 +6929,10 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>-6.1396381849999999</v>
+        <v>19.995361814999999</v>
       </c>
       <c r="K12">
-        <v>71.502635573647296</v>
+        <v>64.968885573647299</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6943,10 +6943,10 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>-6.4275604499999996</v>
+        <v>19.657439549999999</v>
       </c>
       <c r="K13">
-        <v>72.227259975513704</v>
+        <v>65.706009975513695</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6957,10 +6957,10 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>-6.7444328625000001</v>
+        <v>19.235567137499999</v>
       </c>
       <c r="K14">
-        <v>72.675971229323594</v>
+        <v>66.180971229323603</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6971,10 +6971,10 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>-6.9751878400000003</v>
+        <v>18.904812159999999</v>
       </c>
       <c r="K15">
-        <v>73.458632576438305</v>
+        <v>66.988632576438306</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6985,10 +6985,10 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>-7.0440758812500004</v>
+        <v>19.400924118750002</v>
       </c>
       <c r="K16">
-        <v>75.357881984011101</v>
+        <v>68.746631984011103</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7001,7 +7001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6D431B-79A0-4E9B-98EB-8BA36CDAE591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A14398-F1C0-4EF6-9376-D8537F6DC507}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7027,10 +7027,10 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>-0.81319796150000001</v>
+        <v>6.7468020385000003</v>
       </c>
       <c r="K2">
-        <v>19.419515928731201</v>
+        <v>17.5295159287312</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7041,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>-1.1331936499999999</v>
+        <v>8.1568063500000001</v>
       </c>
       <c r="K3">
-        <v>23.519708001541101</v>
+        <v>21.1972080015411</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7055,10 +7055,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>-1.6742094000000001</v>
+        <v>11.005790599999999</v>
       </c>
       <c r="K4">
-        <v>31.7655235828767</v>
+        <v>28.595523582876702</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7069,10 +7069,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>-1.2160114500000001</v>
+        <v>8.95398855</v>
       </c>
       <c r="K5">
-        <v>25.809238478938401</v>
+        <v>23.2667384789384</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7083,10 +7083,10 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>-1.6059226</v>
+        <v>11.024077399999999</v>
       </c>
       <c r="K6">
-        <v>31.801420376027401</v>
+        <v>28.643920376027399</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7097,10 +7097,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>-2.62771585</v>
+        <v>14.842284149999999</v>
       </c>
       <c r="K7">
-        <v>42.9318193734589</v>
+        <v>38.5643193734589</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7111,10 +7111,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>-2.7375304749999998</v>
+        <v>15.962469524999999</v>
       </c>
       <c r="K8">
-        <v>46.151190837928098</v>
+        <v>41.476190837928101</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7125,10 +7125,10 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>-3.1637096250000001</v>
+        <v>17.686290374999999</v>
       </c>
       <c r="K9">
-        <v>51.165365762414403</v>
+        <v>45.952865762414397</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7139,10 +7139,10 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>-3.1883717900000001</v>
+        <v>20.651628209999998</v>
       </c>
       <c r="K10">
-        <v>58.592421714623299</v>
+        <v>52.632421714623298</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7153,10 +7153,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>-3.4097617599999999</v>
+        <v>21.790238240000001</v>
       </c>
       <c r="K11">
-        <v>63.851330850958902</v>
+        <v>57.551330850958898</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7167,10 +7167,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>-4.1698688837500004</v>
+        <v>21.76513111625</v>
       </c>
       <c r="K12">
-        <v>64.333179549704596</v>
+        <v>57.849429549704602</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7181,10 +7181,10 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>-4.0203103100000002</v>
+        <v>21.139689690000001</v>
       </c>
       <c r="K13">
-        <v>64.004625522705496</v>
+        <v>57.714625522705497</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7195,10 +7195,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>-3.3634105124999998</v>
+        <v>19.016589487499999</v>
       </c>
       <c r="K14">
-        <v>60.339400573330501</v>
+        <v>54.744400573330502</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7209,10 +7209,10 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>-2.7091216249999999</v>
+        <v>17.520878374999999</v>
       </c>
       <c r="K15">
-        <v>57.782609173373302</v>
+        <v>52.725109173373298</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7223,10 +7223,10 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>-2.7932881250000001</v>
+        <v>17.026711875</v>
       </c>
       <c r="K16">
-        <v>54.926363127140398</v>
+        <v>49.9713631271404</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7239,7 +7239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F41DA4-6FA7-4227-95A9-4A7E725DDEAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8C556-1BBD-48D7-9CDD-76FF0751A2CA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7265,10 +7265,10 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>-3.5048623999999999</v>
+        <v>15.9651376</v>
       </c>
       <c r="K2">
-        <v>41.504960805479399</v>
+        <v>36.6374608054794</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7279,10 +7279,10 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>-3.6767884999999998</v>
+        <v>17.113211499999998</v>
       </c>
       <c r="K3">
-        <v>44.469580686643802</v>
+        <v>39.272080686643797</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7293,10 +7293,10 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>-3.8828590625000001</v>
+        <v>18.5471409375</v>
       </c>
       <c r="K4">
-        <v>48.1718928478168</v>
+        <v>42.564392847816798</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7307,10 +7307,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>-3.9353180000000001</v>
+        <v>18.734681999999999</v>
       </c>
       <c r="K5">
-        <v>48.661925390411</v>
+        <v>42.994425390411003</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7321,10 +7321,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>-4.1410483749999996</v>
+        <v>18.988951624999999</v>
       </c>
       <c r="K6">
-        <v>49.361111408818502</v>
+        <v>43.578611408818503</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7335,10 +7335,10 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>-4.3687509000000002</v>
+        <v>20.8012491</v>
       </c>
       <c r="K7">
-        <v>54.028091834588999</v>
+        <v>47.735591834589002</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>-4.6000786299999996</v>
+        <v>21.649921370000001</v>
       </c>
       <c r="K8">
-        <v>56.245636095856199</v>
+        <v>49.683136095856199</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7363,10 +7363,10 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>-4.5492618062499997</v>
+        <v>21.875738193749999</v>
       </c>
       <c r="K9">
-        <v>56.807616821425498</v>
+        <v>50.201366821425502</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7377,10 +7377,10 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>-5.0076901449999998</v>
+        <v>22.782309855000001</v>
       </c>
       <c r="K10">
-        <v>59.1584978787157</v>
+        <v>52.210997878715702</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7391,10 +7391,10 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>-5.4524069900000001</v>
+        <v>23.697593009999999</v>
       </c>
       <c r="K11">
-        <v>61.570841473527402</v>
+        <v>54.2833414735274</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7405,10 +7405,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>-5.2549187499999999</v>
+        <v>23.855081250000001</v>
       </c>
       <c r="K12">
-        <v>65.425332427225996</v>
+        <v>58.147832427226</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7419,10 +7419,10 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>-5.0694710525</v>
+        <v>23.6155289475</v>
       </c>
       <c r="K13">
-        <v>64.356751324768794</v>
+        <v>57.185501324768801</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7433,10 +7433,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>-5.0671076775000001</v>
+        <v>23.387892322500001</v>
       </c>
       <c r="K14">
-        <v>63.9802152755394</v>
+        <v>56.866465275539397</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7447,10 +7447,10 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>-5.2078772799999999</v>
+        <v>23.37212272</v>
       </c>
       <c r="K15">
-        <v>65.542777539178104</v>
+        <v>58.397777539178101</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7461,10 +7461,10 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>-4.9851947912499996</v>
+        <v>24.559805208749999</v>
       </c>
       <c r="K16">
-        <v>66.543435684113803</v>
+        <v>59.157185684113799</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7477,7 +7477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F740154C-FB23-47F0-AE89-EC767039D968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7D69B-D5C4-4C21-BB7F-3F7EB0280BD6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7503,10 +7503,10 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>-2.4385903875000001</v>
+        <v>11.781409612499999</v>
       </c>
       <c r="K2">
-        <v>32.061166774957201</v>
+        <v>28.506166774957201</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7517,10 +7517,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>-2.561512075</v>
+        <v>12.978487925</v>
       </c>
       <c r="K3">
-        <v>35.286683498202102</v>
+        <v>31.4016834982021</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7531,10 +7531,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-3.3311455749999999</v>
+        <v>15.848854425000001</v>
       </c>
       <c r="K4">
-        <v>43.142238448544497</v>
+        <v>38.347238448544502</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7545,10 +7545,10 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>-2.8649581249999998</v>
+        <v>14.555041875000001</v>
       </c>
       <c r="K5">
-        <v>39.571360079195202</v>
+        <v>35.216360079195198</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7559,10 +7559,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>-2.7939519375000001</v>
+        <v>14.0860480625</v>
       </c>
       <c r="K6">
-        <v>38.3029948336901</v>
+        <v>34.082994833690101</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7573,10 +7573,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>-3.1528773000000001</v>
+        <v>15.567122700000001</v>
       </c>
       <c r="K7">
-        <v>42.350959051027402</v>
+        <v>37.670959051027403</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7587,10 +7587,10 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>-3.6484483750000001</v>
+        <v>17.301551624999998</v>
       </c>
       <c r="K8">
-        <v>47.105207984160998</v>
+        <v>41.867707984161001</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7601,10 +7601,10 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>-3.8498016000000002</v>
+        <v>18.500198399999999</v>
       </c>
       <c r="K9">
-        <v>50.352107934246597</v>
+        <v>44.764607934246598</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7615,10 +7615,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>-3.8628348125</v>
+        <v>21.0271651875</v>
       </c>
       <c r="K10">
-        <v>56.501708703124997</v>
+        <v>50.279208703125001</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7629,10 +7629,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>-4.71679615625</v>
+        <v>21.958203843749999</v>
       </c>
       <c r="K11">
-        <v>60.333527806185799</v>
+        <v>53.664777806185803</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7643,10 +7643,10 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>-4.8022735325000001</v>
+        <v>22.5077264675</v>
       </c>
       <c r="K12">
-        <v>62.4090341365497</v>
+        <v>55.581534136549699</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7657,10 +7657,10 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-4.7959004500000004</v>
+        <v>22.864099549999999</v>
       </c>
       <c r="K13">
-        <v>62.756755934417797</v>
+        <v>55.841755934417797</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7671,10 +7671,10 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>-4.4817488025000003</v>
+        <v>23.298251197500001</v>
       </c>
       <c r="K14">
-        <v>62.825711173227702</v>
+        <v>55.880711173227702</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7685,10 +7685,10 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>-4.3967424099999999</v>
+        <v>22.883257589999999</v>
       </c>
       <c r="K15">
-        <v>62.562322588801401</v>
+        <v>55.7423225888014</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7699,10 +7699,10 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>-4.3820342974999997</v>
+        <v>23.2129657025</v>
       </c>
       <c r="K16">
-        <v>62.799508574374997</v>
+        <v>55.900758574374997</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7715,7 +7715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A2EDA2-D711-46E3-9E47-7774F6DD8FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1C8B9A-6C67-4F06-BA92-37E6368B8CBD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7741,10 +7741,10 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>-3.1438614500000002</v>
+        <v>12.32613855</v>
       </c>
       <c r="K2">
-        <v>38.168587280308202</v>
+        <v>34.301087280308202</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="J3">
-        <v>-3.0682982000000001</v>
+        <v>12.7217018</v>
       </c>
       <c r="K3">
-        <v>39.348290988356197</v>
+        <v>35.400790988356199</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7769,10 +7769,10 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>-3.513715575</v>
+        <v>14.666284425000001</v>
       </c>
       <c r="K4">
-        <v>45.354456291010301</v>
+        <v>40.809456291010299</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7783,10 +7783,10 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>-3.2788312749999999</v>
+        <v>13.641168725</v>
       </c>
       <c r="K5">
-        <v>42.190159873544502</v>
+        <v>37.960159873544498</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7797,10 +7797,10 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>-3.5972434999999998</v>
+        <v>14.7827565</v>
       </c>
       <c r="K6">
-        <v>45.730941011986303</v>
+        <v>41.135941011986297</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7811,10 +7811,10 @@
         <v>11</v>
       </c>
       <c r="J7">
-        <v>-3.5401912000000002</v>
+        <v>15.4298088</v>
       </c>
       <c r="K7">
-        <v>47.6764998547945</v>
+        <v>42.9339998547945</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7825,10 +7825,10 @@
         <v>11</v>
       </c>
       <c r="J8">
-        <v>-3.9379319000000002</v>
+        <v>16.5120681</v>
       </c>
       <c r="K8">
-        <v>51.058428180479403</v>
+        <v>45.945928180479399</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7839,10 +7839,10 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>-4.0605266625000001</v>
+        <v>17.539473337499999</v>
       </c>
       <c r="K9">
-        <v>54.204350843707203</v>
+        <v>48.804350843707198</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7853,10 +7853,10 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>-4.2026009499999999</v>
+        <v>18.43739905</v>
       </c>
       <c r="K10">
-        <v>54.877677634760303</v>
+        <v>49.2176776347603</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7867,10 +7867,10 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>-4.8473821262500003</v>
+        <v>20.57761787375</v>
       </c>
       <c r="K11">
-        <v>66.273831832932402</v>
+        <v>59.917581832932399</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7881,10 +7881,10 @@
         <v>11</v>
       </c>
       <c r="J12">
-        <v>-5.0054884499999996</v>
+        <v>20.25451155</v>
       </c>
       <c r="K12">
-        <v>67.1533173179795</v>
+        <v>60.838317317979502</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7895,10 +7895,10 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>-5.0706947862499998</v>
+        <v>20.664305213750001</v>
       </c>
       <c r="K13">
-        <v>67.509769586973505</v>
+        <v>61.076019586973501</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7909,10 +7909,10 @@
         <v>11</v>
       </c>
       <c r="J14">
-        <v>-5.0417857625</v>
+        <v>20.613214237499999</v>
       </c>
       <c r="K14">
-        <v>66.926583426926399</v>
+        <v>60.512833426926399</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7923,10 +7923,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>-4.6009378312500004</v>
+        <v>20.804062168750001</v>
       </c>
       <c r="K15">
-        <v>66.179590622196102</v>
+        <v>59.828340622196102</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7937,10 +7937,10 @@
         <v>11</v>
       </c>
       <c r="J16">
-        <v>-4.74313616375</v>
+        <v>21.001863836249999</v>
       </c>
       <c r="K16">
-        <v>67.801400479293704</v>
+        <v>61.365150479293703</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7953,7 +7953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8690D5E-5D1A-4B2B-A145-326F1EE2607B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78469E82-63AF-4554-82DB-D7B138A1E38C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7979,10 +7979,10 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>-3.2706443749999998</v>
+        <v>15.949355625000001</v>
       </c>
       <c r="K2">
-        <v>46.07866109375</v>
+        <v>41.27366109375</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7993,10 +7993,10 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>-3.3520305499999998</v>
+        <v>16.437969450000001</v>
       </c>
       <c r="K3">
-        <v>47.488007637499997</v>
+        <v>42.540507637499999</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -8007,10 +8007,10 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>-3.9773749125000002</v>
+        <v>19.4526250875</v>
       </c>
       <c r="K4">
-        <v>56.196645097987997</v>
+        <v>50.339145097988002</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -8021,10 +8021,10 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>-3.6640038000000001</v>
+        <v>18.005996199999998</v>
       </c>
       <c r="K5">
-        <v>52.015822867808197</v>
+        <v>46.5983228678082</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -8035,10 +8035,10 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>-4.92312819125</v>
+        <v>19.68187180875</v>
       </c>
       <c r="K6">
-        <v>58.457713554661801</v>
+        <v>52.306463554661804</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -8049,10 +8049,10 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>-5.245455465</v>
+        <v>20.149544535</v>
       </c>
       <c r="K7">
-        <v>59.962432359400701</v>
+        <v>53.613682359400698</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -8063,10 +8063,10 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>-5.1837789237500003</v>
+        <v>21.341221076250001</v>
       </c>
       <c r="K8">
-        <v>62.4114104843622</v>
+        <v>55.780160484362199</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -8077,10 +8077,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>-5.2541214837499997</v>
+        <v>21.320878516250001</v>
       </c>
       <c r="K9">
-        <v>63.654557768197797</v>
+        <v>57.0108077681978</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -8091,10 +8091,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>-5.2116010949999998</v>
+        <v>21.403398905</v>
       </c>
       <c r="K10">
-        <v>65.156585205256803</v>
+        <v>58.502835205256801</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -8105,10 +8105,10 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>-5.159027</v>
+        <v>21.840973000000002</v>
       </c>
       <c r="K11">
-        <v>66.644715654109604</v>
+        <v>59.894715654109604</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -8119,10 +8119,10 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>-4.9721709487499997</v>
+        <v>21.962829051250001</v>
       </c>
       <c r="K12">
-        <v>66.629275613899793</v>
+        <v>59.8955256138998</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -8133,10 +8133,10 @@
         <v>12</v>
       </c>
       <c r="J13">
-        <v>-4.6054967150000001</v>
+        <v>22.204503285000001</v>
       </c>
       <c r="K13">
-        <v>66.801401576010306</v>
+        <v>60.098901576010299</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -8147,10 +8147,10 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>-4.6940982099999999</v>
+        <v>21.86090179</v>
       </c>
       <c r="K14">
-        <v>66.904551949760304</v>
+        <v>60.265801949760302</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -8161,10 +8161,10 @@
         <v>12</v>
       </c>
       <c r="J15">
-        <v>-4.6768507450000003</v>
+        <v>21.503149255</v>
       </c>
       <c r="K15">
-        <v>66.924322275291104</v>
+        <v>60.379322275291102</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -8175,10 +8175,10 @@
         <v>12</v>
       </c>
       <c r="J16">
-        <v>-5.2799207800000003</v>
+        <v>21.09007922</v>
       </c>
       <c r="K16">
-        <v>68.668048688150705</v>
+        <v>62.075548688150697</v>
       </c>
       <c r="L16">
         <v>2015</v>

--- a/data/NP20versusRestIncomeTrendsOHI.xlsx
+++ b/data/NP20versusRestIncomeTrendsOHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF25C2F-9DFE-4689-8F3A-49CB4206BB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{892C0CCF-918D-4533-BCB3-2352549365FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{D7607436-B5FF-4282-933E-EDF01AE74CE8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="25" xr2:uid="{75678C5E-8BF5-47AF-9139-72E3F8AB8D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -219,7 +219,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8974D417-BA75-4AAE-B3C2-4FEFAEA564C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696AC1CD-AD00-433F-819A-987361767558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,7 +277,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828CD33D-A4F0-4F84-8ECF-FC132C70F281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33B01F3-9B1C-4C24-8BAF-BE13FDB9C2F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -335,7 +335,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ECC816-5E02-4A8B-8453-301E571B82F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8769D9F3-078A-4B24-8B3E-4E3F387B2163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,7 +393,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B57AE3F-EE1E-48B2-A479-2391CDA4D2D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D5A836-622D-47BA-9FBD-5B4AD73A943D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,7 +451,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F24C196-DCB8-45C0-A551-86DC6B13E697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAA6E09-CA8B-4BF8-8470-3F4768AFE084}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E803CE89-2138-481E-8271-4B472A20D4D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2693A9-BED1-465A-8179-669A778978E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,7 +567,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591BD861-BDC1-4DF5-BDFD-1934FEC6D7EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CFF44C-F192-406E-BCBF-B57CC63CDB10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +625,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0276E2D3-F9D2-4346-80B8-8DA5DD3E4D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D633F91-C5AB-406D-A3FF-0658D7F30D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +683,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611B5AA8-2945-4AD0-BBFB-B8C3D4681658}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF018D2-F250-4001-9472-6F5B85BB6556}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +741,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4529B51-21D1-47EF-8065-A8715AF6CE10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D200C894-6D64-4F28-82FB-BFB8C4A26D91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +799,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3452C2B8-9877-4001-AC1E-F861B26419AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7458EC4-7655-4373-A095-0844CF90F144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0369F5-38FB-4D30-9CEC-FD4DBE6A33FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFBD508-FDE5-413F-8576-2F2054520237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC36472-DB40-4074-B459-E359E5C87BF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130681BA-CF02-47B9-82ED-A7F5ADF44F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +973,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7687CF-7449-466C-883B-A74D8B8FAE10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF8C305-09C6-4185-B175-D4AB456F2157}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +1031,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5826255-E1D6-46EB-9C9D-D55CC9D91741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDD62FE-E26B-4AA0-8E98-6DAF69333666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1089,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331CDEF5-FE0D-4B49-9E65-A05CAFF79235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC326B0-2D5D-4BCD-9CA2-3E1B95B04F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E0EC66-7699-45F9-82F4-9F965A58C383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D726421-A994-4B34-8C26-00F804E1DE3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1205,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E211FFDA-CF3C-4B03-9B17-99958272B468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F418964-1BCE-4EEE-B376-42D5577E5CB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1263,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB981A57-F6EE-4AC9-A51F-5C3EBB38AE4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1886FAF8-067F-41B3-9B82-FB19882FDE0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD43B779-9A92-4CD9-96DB-6B1871EF31AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA5FEE2-59F2-427E-B0A2-AD2B21BE838D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0438E390-4855-470E-8BA9-7FE4F740BF7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4BC0DB-52A9-4707-8147-A0E0FE1A697A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F7979E-2395-4375-B6AC-022680D88F97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638B53F5-426E-4C0A-9419-733337F58D04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1B714C-90F0-4F24-B1DE-4E232D59A899}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AF6279-A45B-408A-B5C7-A2FE308CD0E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A3D3EB-C7FB-46D1-AEDE-696772BB8B4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA75C20-12F6-46E4-BB5C-6C810757F98F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1611,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78EA708-AB4A-4981-B440-628A37A4D4AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1338C0-1953-43B9-8163-5BBABDA046B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1669,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE46DA9E-984A-42ED-B395-6256A385EF9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4836866-3262-4877-ABE2-A579BF94F70D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0476474D-B20B-4C6E-8964-1BC62F7D65C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B809F3A4-85CC-4F2F-BB06-9D6E0FB0EF4F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2241,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20443F3C-540A-493C-B689-F90C5AA9A83B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42FF1A4-2ECB-4E0F-ADB0-1DACDD2CB9D6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2479,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D98E6E-F679-4807-BBBD-2A3381A03B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9083E99B-AC83-460D-A15B-FFB95FA3FCF4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D08177-0779-47BD-9ED7-6D3252E565A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00916D68-F8D0-4FB3-B67B-34E0E30E99B5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2955,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D4EE9-DF8A-4A73-AA68-C8D2B9D0BDC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03FA219-DF28-4C0F-A0C1-809E4C3C77B4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3193,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82EBCAB-7049-4414-993D-3155F9C8E782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E9FC48-F94A-4C7C-A94C-A31550FA00B0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3431,7 +3431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9871E26D-E304-42BA-9582-7DB2360B6CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C761813F-1631-426F-A092-6018304F5EEB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3669,7 +3669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00953147-660A-4559-9F3F-9533439C2FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D53A16-07BD-4B59-B16E-643F692C1759}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E5D94-BC8C-4A1C-9193-5EA3EA5DED8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDD3D8D-5834-43CE-98E4-727D9E9FC19C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4145,7 +4145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270A1798-8ABE-4DCE-8C0F-4B9862E29D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A917F7F-7FD3-4452-8FB3-A187497B3C18}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4383,7 +4383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84705913-D6CD-4D63-A14D-4D313009C9B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A86E87D-734D-47E6-97AE-FA56A3EEBA2D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4621,7 +4621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAC9BD5-5825-473A-9449-AC71E584B7AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807AD29-778D-447A-B511-0CD66F6020A4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4859,7 +4859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D0A39-5F11-4AD2-9D1E-97183E948F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3977A6-17A9-497B-BE2D-1EC957B989FD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5097,7 +5097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D44746-795C-456F-B469-280FB30F0035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1A903-4CAC-42B0-B7EB-71458BC9A903}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5335,7 +5335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E24D04-F9C8-408B-A69D-4C8B4493F131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CAE29E-0382-464A-B321-ED4B90581C92}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5573,7 +5573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B356B7-A4B6-4B63-8D8D-2E63993CE37E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A1A3B-9A9F-4840-A21F-640F934BA8A8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5811,7 +5811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3907109-55B1-43ED-84D5-5E891F0EED4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F3FA8A-03CE-4B2F-98AD-A9C393A685D7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6049,7 +6049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7BAB75-8313-43DA-AF8B-4A0341D84A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71B55EF-5C35-4869-889A-FC87FA93A507}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6287,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D89E1E2-4C84-4201-803A-7C34884085CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA53361-5950-4D91-973D-A4EF58217A47}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6525,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2434AF57-B4F5-4E88-8EB3-46FFAFB49B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50424C71-179B-4B22-BD7B-EAC63316BA7C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6763,7 +6763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1B8F6-EB97-4ED8-9ED3-F7EF3486EF1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB13508E-9AB0-40E3-811D-3122C77E05E5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7001,7 +7001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A14398-F1C0-4EF6-9376-D8537F6DC507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5CE911-9142-4405-A277-EBC21555A3B7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7239,7 +7239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8C556-1BBD-48D7-9CDD-76FF0751A2CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9F23C-E1C5-4CB5-B718-0F99AAD37253}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7477,7 +7477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7D69B-D5C4-4C21-BB7F-3F7EB0280BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF6390D-E60C-46A5-BB9C-DBA316BFEF74}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7715,7 +7715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1C8B9A-6C67-4F06-BA92-37E6368B8CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6D8A1-B5CC-4004-B57C-AA2449BFDA24}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7953,7 +7953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78469E82-63AF-4554-82DB-D7B138A1E38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD4743B-5406-4B1B-9DCF-4A68BB3C142A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
